--- a/data/simplified_book_list.xlsx
+++ b/data/simplified_book_list.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aayushiverma/Documents/Github/My-Book-Stats/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC3F839-A3A6-134E-8D5A-436271E688C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C77F7C1-8994-9041-A319-FA2892B3B955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16620" yWindow="500" windowWidth="34580" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13780" yWindow="500" windowWidth="37420" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="goodreads_library_export" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">goodreads_library_export!$A$1:$P$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="801">
   <si>
     <t>Title</t>
   </si>
@@ -2362,13 +2365,88 @@
   </si>
   <si>
     <t>ownership_status</t>
+  </si>
+  <si>
+    <t>elementary-school</t>
+  </si>
+  <si>
+    <t>high-school</t>
+  </si>
+  <si>
+    <t>user_genre</t>
+  </si>
+  <si>
+    <t>physics</t>
+  </si>
+  <si>
+    <t>thriller;mystery;suspense</t>
+  </si>
+  <si>
+    <t>astronomy</t>
+  </si>
+  <si>
+    <t>non-fiction</t>
+  </si>
+  <si>
+    <t>college</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>own-physical</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>productivity</t>
+  </si>
+  <si>
+    <t>french</t>
+  </si>
+  <si>
+    <t>spanish</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>history;biography</t>
+  </si>
+  <si>
+    <t>history;biography;astronomy</t>
+  </si>
+  <si>
+    <t>fiction_status</t>
+  </si>
+  <si>
+    <t>thriller</t>
+  </si>
+  <si>
+    <t>middle-school</t>
+  </si>
+  <si>
+    <t>suspense;mystery</t>
+  </si>
+  <si>
+    <t>suspense</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>history;new-zealand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2527,6 +2605,13 @@
       <color rgb="FF0F1111"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2870,13 +2955,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3232,31 +3318,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N267"/>
+  <dimension ref="A1:P267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A131" sqref="A131"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J126" sqref="J126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="55.5" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="27" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="13.1640625" customWidth="1"/>
     <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.1640625" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3294,13 +3381,19 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>778</v>
+      </c>
+      <c r="N1" t="s">
+        <v>794</v>
+      </c>
+      <c r="O1" t="s">
         <v>774</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>304</v>
       </c>
@@ -3336,8 +3429,13 @@
       <c r="L2" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>727</v>
       </c>
@@ -3373,8 +3471,13 @@
       <c r="L3" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>641</v>
       </c>
@@ -3410,8 +3513,13 @@
       <c r="L4" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>455</v>
       </c>
@@ -3447,8 +3555,13 @@
       <c r="L5" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>649</v>
       </c>
@@ -3475,8 +3588,13 @@
       <c r="L6" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>484</v>
       </c>
@@ -3512,8 +3630,13 @@
       <c r="L7" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>447</v>
       </c>
@@ -3549,8 +3672,13 @@
       <c r="L8" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>632</v>
       </c>
@@ -3586,8 +3714,13 @@
       <c r="L9" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -3623,8 +3756,13 @@
       <c r="L10" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>509</v>
       </c>
@@ -3654,8 +3792,13 @@
       <c r="L11" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>340</v>
       </c>
@@ -3691,8 +3834,13 @@
       <c r="L12" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>647</v>
       </c>
@@ -3728,8 +3876,13 @@
       <c r="L13" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>262</v>
       </c>
@@ -3765,8 +3918,13 @@
       <c r="L14" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>725</v>
       </c>
@@ -3799,8 +3957,13 @@
       <c r="L15" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>520</v>
       </c>
@@ -3839,8 +4002,13 @@
       <c r="L16" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>570</v>
       </c>
@@ -3873,8 +4041,13 @@
       <c r="L17" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>571</v>
       </c>
@@ -3907,8 +4080,13 @@
       <c r="L18" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>415</v>
       </c>
@@ -3947,8 +4125,13 @@
       <c r="L19" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>259</v>
       </c>
@@ -3984,8 +4167,13 @@
       <c r="L20" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>504</v>
       </c>
@@ -4021,8 +4209,13 @@
       <c r="L21" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>281</v>
       </c>
@@ -4058,8 +4251,13 @@
       <c r="L22" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>693</v>
       </c>
@@ -4095,8 +4293,13 @@
       <c r="L23" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>345</v>
       </c>
@@ -4132,8 +4335,13 @@
       <c r="L24" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -4169,8 +4377,17 @@
       <c r="L25" s="1">
         <v>45143</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="O25" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>533</v>
       </c>
@@ -4200,8 +4417,13 @@
       <c r="L26" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>413</v>
       </c>
@@ -4237,8 +4459,13 @@
       <c r="L27" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>376</v>
       </c>
@@ -4268,8 +4495,13 @@
       <c r="L28" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>651</v>
       </c>
@@ -4305,8 +4537,13 @@
       <c r="L29" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>687</v>
       </c>
@@ -4339,8 +4576,15 @@
       <c r="L30" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>658</v>
       </c>
@@ -4376,8 +4620,13 @@
       <c r="L31" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>567</v>
       </c>
@@ -4413,8 +4662,13 @@
       <c r="L32" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>602</v>
       </c>
@@ -4453,8 +4707,13 @@
       <c r="L33" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>361</v>
       </c>
@@ -4487,8 +4746,13 @@
       <c r="L34" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>586</v>
       </c>
@@ -4524,8 +4788,13 @@
       <c r="L35" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>436</v>
       </c>
@@ -4561,8 +4830,13 @@
       <c r="L36" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -4595,8 +4869,20 @@
       <c r="L37" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="O37" t="s">
+        <v>777</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -4635,8 +4921,20 @@
       <c r="L38" s="1">
         <v>45149</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="O38" t="s">
+        <v>783</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -4663,8 +4961,20 @@
       <c r="L39" s="1">
         <v>45149</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="O39" t="s">
+        <v>783</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -4703,8 +5013,20 @@
       <c r="L40" s="1">
         <v>45149</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="O40" t="s">
+        <v>783</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -4740,8 +5062,17 @@
       <c r="L41" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="O41" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>108</v>
       </c>
@@ -4780,8 +5111,14 @@
       <c r="L42" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -4820,8 +5157,14 @@
       <c r="L43" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>135</v>
       </c>
@@ -4857,8 +5200,14 @@
       <c r="L44" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -4894,8 +5243,14 @@
       <c r="L45" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>146</v>
       </c>
@@ -4931,8 +5286,10 @@
       <c r="L46" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>175</v>
       </c>
@@ -4968,8 +5325,10 @@
       <c r="L47" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>241</v>
       </c>
@@ -5005,8 +5364,10 @@
       <c r="L48" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>172</v>
       </c>
@@ -5042,8 +5403,10 @@
       <c r="L49" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>128</v>
       </c>
@@ -5079,8 +5442,14 @@
       <c r="L50" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>212</v>
       </c>
@@ -5116,8 +5485,10 @@
       <c r="L51" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -5153,8 +5524,14 @@
       <c r="L52" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>165</v>
       </c>
@@ -5190,8 +5567,10 @@
       <c r="L53" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -5227,8 +5606,14 @@
       <c r="L54" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>168</v>
       </c>
@@ -5267,8 +5652,10 @@
       <c r="L55" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>195</v>
       </c>
@@ -5307,8 +5694,12 @@
       <c r="L56" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -5344,8 +5735,14 @@
       <c r="L57" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -5384,8 +5781,14 @@
       <c r="L58" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>192</v>
       </c>
@@ -5421,8 +5824,10 @@
       <c r="L59" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>91</v>
       </c>
@@ -5458,8 +5863,14 @@
       <c r="L60" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>202</v>
       </c>
@@ -5495,8 +5906,10 @@
       <c r="L61" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>199</v>
       </c>
@@ -5532,8 +5945,10 @@
       <c r="L62" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>205</v>
       </c>
@@ -5569,8 +5984,10 @@
       <c r="L63" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>250</v>
       </c>
@@ -5606,8 +6023,10 @@
       <c r="L64" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -5640,8 +6059,14 @@
       <c r="L65" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -5677,8 +6102,14 @@
       <c r="L66" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -5714,8 +6145,14 @@
       <c r="L67" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>181</v>
       </c>
@@ -5751,8 +6188,10 @@
       <c r="L68" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>154</v>
       </c>
@@ -5791,8 +6230,10 @@
       <c r="L69" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>101</v>
       </c>
@@ -5825,8 +6266,12 @@
       <c r="L70" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="1"/>
+      <c r="N70" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>161</v>
       </c>
@@ -5859,8 +6304,10 @@
       <c r="L71" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>63</v>
       </c>
@@ -5893,8 +6340,14 @@
       <c r="L72" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>243</v>
       </c>
@@ -5930,8 +6383,12 @@
       <c r="L73" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>238</v>
       </c>
@@ -5967,8 +6424,12 @@
       <c r="L74" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -6004,8 +6465,14 @@
       <c r="L75" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -6044,8 +6511,12 @@
       <c r="L76" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="1"/>
+      <c r="N76" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -6081,8 +6552,12 @@
       <c r="L77" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="1"/>
+      <c r="N77" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>131</v>
       </c>
@@ -6121,8 +6596,12 @@
       <c r="L78" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M78" s="1"/>
+      <c r="N78" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>215</v>
       </c>
@@ -6158,8 +6637,10 @@
       <c r="L79" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>226</v>
       </c>
@@ -6192,8 +6673,12 @@
       <c r="L80" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>188</v>
       </c>
@@ -6229,8 +6714,12 @@
       <c r="L81" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>235</v>
       </c>
@@ -6266,8 +6755,10 @@
       <c r="L82" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>218</v>
       </c>
@@ -6303,8 +6794,10 @@
       <c r="L83" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -6337,8 +6830,14 @@
       <c r="L84" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>220</v>
       </c>
@@ -6374,8 +6873,12 @@
       <c r="L85" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>223</v>
       </c>
@@ -6411,8 +6914,10 @@
       <c r="L86" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>732</v>
       </c>
@@ -6448,8 +6953,10 @@
       <c r="L87" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>253</v>
       </c>
@@ -6485,8 +6992,10 @@
       <c r="L88" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>151</v>
       </c>
@@ -6522,8 +7031,10 @@
       <c r="L89" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>183</v>
       </c>
@@ -6559,8 +7070,10 @@
       <c r="L90" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>158</v>
       </c>
@@ -6596,8 +7109,10 @@
       <c r="L91" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>148</v>
       </c>
@@ -6633,8 +7148,10 @@
       <c r="L92" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -6673,8 +7190,14 @@
       <c r="L93" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -6710,8 +7233,12 @@
       <c r="L94" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>750</v>
       </c>
@@ -6753,8 +7280,14 @@
       <c r="M95" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="O95" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>755</v>
       </c>
@@ -6793,8 +7326,14 @@
       <c r="M96" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="O96" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>747</v>
       </c>
@@ -6830,8 +7369,9 @@
       <c r="L97" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>745</v>
       </c>
@@ -6861,8 +7401,12 @@
       <c r="L98" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M98" t="s">
+        <v>795</v>
+      </c>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>737</v>
       </c>
@@ -6898,8 +7442,9 @@
       <c r="L99" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>734</v>
       </c>
@@ -6935,8 +7480,12 @@
       <c r="L100" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M100" t="s">
+        <v>797</v>
+      </c>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>759</v>
       </c>
@@ -6978,8 +7527,14 @@
       <c r="M101" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="O101" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>739</v>
       </c>
@@ -7018,8 +7573,12 @@
       <c r="L102" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M102" t="s">
+        <v>798</v>
+      </c>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>743</v>
       </c>
@@ -7055,8 +7614,9 @@
       <c r="L103" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>722</v>
       </c>
@@ -7092,8 +7652,9 @@
       <c r="L104" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>763</v>
       </c>
@@ -7132,8 +7693,14 @@
       <c r="M105" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="O105" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>766</v>
       </c>
@@ -7169,8 +7736,14 @@
       <c r="M106" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N106" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="O106" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>27</v>
       </c>
@@ -7206,8 +7779,12 @@
       <c r="L107" s="1">
         <v>45149</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" ht="23" x14ac:dyDescent="0.25">
+      <c r="M107" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>524</v>
       </c>
@@ -7243,8 +7820,13 @@
       <c r="L108" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" ht="23" x14ac:dyDescent="0.25">
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>696</v>
       </c>
@@ -7280,8 +7862,13 @@
       <c r="L109" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" ht="23" x14ac:dyDescent="0.25">
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>519</v>
       </c>
@@ -7314,8 +7901,13 @@
       <c r="L110" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" ht="23" x14ac:dyDescent="0.25">
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>690</v>
       </c>
@@ -7351,8 +7943,13 @@
       <c r="L111" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="23" x14ac:dyDescent="0.25">
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>501</v>
       </c>
@@ -7388,8 +7985,13 @@
       <c r="L112" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" ht="23" x14ac:dyDescent="0.25">
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>644</v>
       </c>
@@ -7425,8 +8027,13 @@
       <c r="L113" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" ht="23" x14ac:dyDescent="0.25">
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>541</v>
       </c>
@@ -7462,8 +8069,13 @@
       <c r="L114" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" ht="23" x14ac:dyDescent="0.25">
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>664</v>
       </c>
@@ -7496,8 +8108,13 @@
       <c r="L115" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" ht="23" x14ac:dyDescent="0.25">
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>614</v>
       </c>
@@ -7533,8 +8150,13 @@
       <c r="L116" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>719</v>
       </c>
@@ -7570,8 +8192,12 @@
       <c r="L117" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" ht="23" x14ac:dyDescent="0.25">
+      <c r="M117" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>496</v>
       </c>
@@ -7607,8 +8233,13 @@
       <c r="L118" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" ht="23" x14ac:dyDescent="0.25">
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>578</v>
       </c>
@@ -7642,8 +8273,13 @@
       <c r="L119" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" ht="23" x14ac:dyDescent="0.25">
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>621</v>
       </c>
@@ -7678,8 +8314,13 @@
       <c r="L120" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" ht="23" x14ac:dyDescent="0.25">
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>507</v>
       </c>
@@ -7715,8 +8356,13 @@
       <c r="L121" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" ht="23" x14ac:dyDescent="0.25">
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>554</v>
       </c>
@@ -7750,8 +8396,13 @@
       <c r="L122" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" ht="23" x14ac:dyDescent="0.25">
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>652</v>
       </c>
@@ -7785,8 +8436,13 @@
       <c r="L123" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>698</v>
       </c>
@@ -7810,8 +8466,10 @@
       <c r="L124" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>711</v>
       </c>
@@ -7844,8 +8502,10 @@
       <c r="L125" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>611</v>
       </c>
@@ -7878,8 +8538,10 @@
       <c r="L126" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>549</v>
       </c>
@@ -7909,8 +8571,10 @@
       <c r="L127" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>668</v>
       </c>
@@ -7940,8 +8604,10 @@
       <c r="L128" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>490</v>
       </c>
@@ -7974,8 +8640,10 @@
       <c r="L129" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>713</v>
       </c>
@@ -8008,8 +8676,10 @@
       <c r="L130" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>628</v>
       </c>
@@ -8039,8 +8709,10 @@
       <c r="L131" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>511</v>
       </c>
@@ -8073,8 +8745,10 @@
       <c r="L132" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>674</v>
       </c>
@@ -8107,8 +8781,10 @@
       <c r="L133" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>530</v>
       </c>
@@ -8138,8 +8814,10 @@
       <c r="L134" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>708</v>
       </c>
@@ -8172,8 +8850,10 @@
       <c r="L135" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>599</v>
       </c>
@@ -8206,8 +8886,10 @@
       <c r="L136" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>517</v>
       </c>
@@ -8234,8 +8916,10 @@
       <c r="L137" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>705</v>
       </c>
@@ -8265,8 +8949,10 @@
       <c r="L138" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>655</v>
       </c>
@@ -8296,8 +8982,10 @@
       <c r="L139" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>516</v>
       </c>
@@ -8327,8 +9015,10 @@
       <c r="L140" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>639</v>
       </c>
@@ -8358,8 +9048,10 @@
       <c r="L141" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>543</v>
       </c>
@@ -8392,8 +9084,10 @@
       <c r="L142" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>499</v>
       </c>
@@ -8417,8 +9111,10 @@
       <c r="L143" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>681</v>
       </c>
@@ -8451,8 +9147,10 @@
       <c r="L144" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>546</v>
       </c>
@@ -8482,8 +9180,10 @@
       <c r="L145" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>580</v>
       </c>
@@ -8516,8 +9216,10 @@
       <c r="L146" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>629</v>
       </c>
@@ -8550,8 +9252,10 @@
       <c r="L147" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>527</v>
       </c>
@@ -8584,8 +9288,10 @@
       <c r="L148" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>716</v>
       </c>
@@ -8618,8 +9324,10 @@
       <c r="L149" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>617</v>
       </c>
@@ -8652,8 +9360,10 @@
       <c r="L150" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>606</v>
       </c>
@@ -8686,8 +9396,10 @@
       <c r="L151" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>551</v>
       </c>
@@ -8717,8 +9429,10 @@
       <c r="L152" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>572</v>
       </c>
@@ -8751,8 +9465,10 @@
       <c r="L153" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>538</v>
       </c>
@@ -8785,8 +9501,10 @@
       <c r="L154" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>560</v>
       </c>
@@ -8819,8 +9537,10 @@
       <c r="L155" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>591</v>
       </c>
@@ -8853,8 +9573,10 @@
       <c r="L156" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>575</v>
       </c>
@@ -8887,8 +9609,10 @@
       <c r="L157" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>624</v>
       </c>
@@ -8921,8 +9645,10 @@
       <c r="L158" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>563</v>
       </c>
@@ -8952,8 +9678,10 @@
       <c r="L159" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>583</v>
       </c>
@@ -8986,8 +9714,10 @@
       <c r="L160" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>702</v>
       </c>
@@ -9020,8 +9750,10 @@
       <c r="L161" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>536</v>
       </c>
@@ -9051,8 +9783,10 @@
       <c r="L162" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>661</v>
       </c>
@@ -9082,8 +9816,10 @@
       <c r="L163" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>492</v>
       </c>
@@ -9119,8 +9855,10 @@
       <c r="L164" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>671</v>
       </c>
@@ -9153,8 +9891,10 @@
       <c r="L165" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>700</v>
       </c>
@@ -9187,8 +9927,10 @@
       <c r="L166" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>557</v>
       </c>
@@ -9221,8 +9963,10 @@
       <c r="L167" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>638</v>
       </c>
@@ -9255,8 +9999,10 @@
       <c r="L168" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>594</v>
       </c>
@@ -9286,8 +10032,10 @@
       <c r="L169" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>730</v>
       </c>
@@ -9320,8 +10068,10 @@
       <c r="L170" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>565</v>
       </c>
@@ -9354,8 +10104,10 @@
       <c r="L171" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>684</v>
       </c>
@@ -9385,8 +10137,10 @@
       <c r="L172" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>666</v>
       </c>
@@ -9419,8 +10173,10 @@
       <c r="L173" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>635</v>
       </c>
@@ -9453,8 +10209,10 @@
       <c r="L174" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>609</v>
       </c>
@@ -9487,8 +10245,10 @@
       <c r="L175" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>710</v>
       </c>
@@ -9521,8 +10281,10 @@
       <c r="L176" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>679</v>
       </c>
@@ -9552,8 +10314,10 @@
       <c r="L177" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>620</v>
       </c>
@@ -9586,8 +10350,10 @@
       <c r="L178" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>514</v>
       </c>
@@ -9617,8 +10383,10 @@
       <c r="L179" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>597</v>
       </c>
@@ -9648,8 +10416,10 @@
       <c r="L180" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>676</v>
       </c>
@@ -9682,8 +10452,10 @@
       <c r="L181" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>178</v>
       </c>
@@ -9717,8 +10489,10 @@
       <c r="L182" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>326</v>
       </c>
@@ -9751,8 +10525,10 @@
       <c r="L183" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>51</v>
       </c>
@@ -9785,8 +10561,14 @@
       <c r="L184" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M184" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="N184" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>337</v>
       </c>
@@ -9819,8 +10601,10 @@
       <c r="L185" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>471</v>
       </c>
@@ -9853,8 +10637,10 @@
       <c r="L186" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>122</v>
       </c>
@@ -9887,8 +10673,10 @@
       <c r="L187" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>452</v>
       </c>
@@ -9921,8 +10709,10 @@
       <c r="L188" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>296</v>
       </c>
@@ -9955,8 +10745,10 @@
       <c r="L189" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>302</v>
       </c>
@@ -9989,8 +10781,10 @@
       <c r="L190" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>480</v>
       </c>
@@ -10023,8 +10817,10 @@
       <c r="L191" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>461</v>
       </c>
@@ -10057,8 +10853,10 @@
       <c r="L192" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>434</v>
       </c>
@@ -10091,8 +10889,10 @@
       <c r="L193" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>379</v>
       </c>
@@ -10125,8 +10925,10 @@
       <c r="L194" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>265</v>
       </c>
@@ -10159,8 +10961,10 @@
       <c r="L195" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>141</v>
       </c>
@@ -10196,8 +11000,10 @@
       <c r="L196" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>322</v>
       </c>
@@ -10230,8 +11036,10 @@
       <c r="L197" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>388</v>
       </c>
@@ -10264,8 +11072,10 @@
       <c r="L198" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>291</v>
       </c>
@@ -10295,8 +11105,10 @@
       <c r="L199" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>138</v>
       </c>
@@ -10329,8 +11141,10 @@
       <c r="L200" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>354</v>
       </c>
@@ -10360,8 +11174,10 @@
       <c r="L201" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>431</v>
       </c>
@@ -10394,8 +11210,10 @@
       <c r="L202" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>445</v>
       </c>
@@ -10425,8 +11243,10 @@
       <c r="L203" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>331</v>
       </c>
@@ -10456,8 +11276,10 @@
       <c r="L204" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>293</v>
       </c>
@@ -10490,8 +11312,10 @@
       <c r="L205" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>464</v>
       </c>
@@ -10521,8 +11345,10 @@
       <c r="L206" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>383</v>
       </c>
@@ -10552,8 +11378,10 @@
       <c r="L207" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>97</v>
       </c>
@@ -10589,8 +11417,14 @@
       <c r="L208" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M208" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="N208" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>439</v>
       </c>
@@ -10623,8 +11457,10 @@
       <c r="L209" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>474</v>
       </c>
@@ -10657,8 +11493,10 @@
       <c r="L210" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>385</v>
       </c>
@@ -10691,8 +11529,10 @@
       <c r="L211" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>319</v>
       </c>
@@ -10725,8 +11565,10 @@
       <c r="L212" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>400</v>
       </c>
@@ -10759,8 +11601,10 @@
       <c r="L213" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>270</v>
       </c>
@@ -10787,8 +11631,10 @@
       <c r="L214" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>428</v>
       </c>
@@ -10818,8 +11664,10 @@
       <c r="L215" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>369</v>
       </c>
@@ -10852,8 +11700,10 @@
       <c r="L216" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>313</v>
       </c>
@@ -10886,8 +11736,10 @@
       <c r="L217" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>425</v>
       </c>
@@ -10920,8 +11772,10 @@
       <c r="L218" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>405</v>
       </c>
@@ -10951,8 +11805,10 @@
       <c r="L219" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>208</v>
       </c>
@@ -10988,8 +11844,10 @@
       <c r="L220" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>381</v>
       </c>
@@ -11022,8 +11880,10 @@
       <c r="L221" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>442</v>
       </c>
@@ -11056,8 +11916,10 @@
       <c r="L222" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>391</v>
       </c>
@@ -11090,8 +11952,10 @@
       <c r="L223" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>307</v>
       </c>
@@ -11124,8 +11988,10 @@
       <c r="L224" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>419</v>
       </c>
@@ -11158,8 +12024,10 @@
       <c r="L225" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>356</v>
       </c>
@@ -11192,8 +12060,10 @@
       <c r="L226" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>288</v>
       </c>
@@ -11226,8 +12096,10 @@
       <c r="L227" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>72</v>
       </c>
@@ -11260,8 +12132,14 @@
       <c r="L228" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M228" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="N228" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>348</v>
       </c>
@@ -11294,8 +12172,10 @@
       <c r="L229" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>76</v>
       </c>
@@ -11328,8 +12208,14 @@
       <c r="L230" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M230" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="N230" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>325</v>
       </c>
@@ -11362,8 +12248,10 @@
       <c r="L231" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>477</v>
       </c>
@@ -11396,8 +12284,10 @@
       <c r="L232" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>359</v>
       </c>
@@ -11430,8 +12320,10 @@
       <c r="L233" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>450</v>
       </c>
@@ -11464,8 +12356,10 @@
       <c r="L234" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>278</v>
       </c>
@@ -11498,8 +12392,10 @@
       <c r="L235" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>329</v>
       </c>
@@ -11526,8 +12422,10 @@
       <c r="L236" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>299</v>
       </c>
@@ -11560,8 +12458,10 @@
       <c r="L237" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>334</v>
       </c>
@@ -11594,8 +12494,10 @@
       <c r="L238" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M238" s="1"/>
+      <c r="N238" s="1"/>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>487</v>
       </c>
@@ -11628,8 +12530,10 @@
       <c r="L239" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>394</v>
       </c>
@@ -11662,8 +12566,10 @@
       <c r="L240" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>247</v>
       </c>
@@ -11696,8 +12602,10 @@
       <c r="L241" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>232</v>
       </c>
@@ -11730,8 +12638,10 @@
       <c r="L242" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>397</v>
       </c>
@@ -11764,8 +12674,10 @@
       <c r="L243" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>229</v>
       </c>
@@ -11798,8 +12710,10 @@
       <c r="L244" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>372</v>
       </c>
@@ -11829,8 +12743,10 @@
       <c r="L245" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M245" s="1"/>
+      <c r="N245" s="1"/>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>272</v>
       </c>
@@ -11863,8 +12779,10 @@
       <c r="L246" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M246" s="1"/>
+      <c r="N246" s="1"/>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>467</v>
       </c>
@@ -11897,8 +12815,10 @@
       <c r="L247" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M247" s="1"/>
+      <c r="N247" s="1"/>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>256</v>
       </c>
@@ -11931,8 +12851,10 @@
       <c r="L248" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M248" s="1"/>
+      <c r="N248" s="1"/>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>410</v>
       </c>
@@ -11965,8 +12887,10 @@
       <c r="L249" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>407</v>
       </c>
@@ -11999,8 +12923,10 @@
       <c r="L250" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>373</v>
       </c>
@@ -12033,8 +12959,10 @@
       <c r="L251" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -12067,8 +12995,10 @@
       <c r="L252" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M252" s="1"/>
+      <c r="N252" s="1"/>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>422</v>
       </c>
@@ -12101,8 +13031,10 @@
       <c r="L253" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M253" s="1"/>
+      <c r="N253" s="1"/>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>284</v>
       </c>
@@ -12135,8 +13067,10 @@
       <c r="L254" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M254" s="1"/>
+      <c r="N254" s="1"/>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>366</v>
       </c>
@@ -12169,8 +13103,10 @@
       <c r="L255" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M255" s="1"/>
+      <c r="N255" s="1"/>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>44</v>
       </c>
@@ -12200,8 +13136,14 @@
       <c r="L256" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M256" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="N256" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>351</v>
       </c>
@@ -12234,8 +13176,10 @@
       <c r="L257" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M257" s="1"/>
+      <c r="N257" s="1"/>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>403</v>
       </c>
@@ -12268,8 +13212,10 @@
       <c r="L258" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M258" s="1"/>
+      <c r="N258" s="1"/>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>343</v>
       </c>
@@ -12302,8 +13248,10 @@
       <c r="L259" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M259" s="1"/>
+      <c r="N259" s="1"/>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>363</v>
       </c>
@@ -12336,8 +13284,10 @@
       <c r="L260" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M260" s="1"/>
+      <c r="N260" s="1"/>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>275</v>
       </c>
@@ -12370,8 +13320,10 @@
       <c r="L261" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M261" s="1"/>
+      <c r="N261" s="1"/>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>310</v>
       </c>
@@ -12404,8 +13356,10 @@
       <c r="L262" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M262" s="1"/>
+      <c r="N262" s="1"/>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>458</v>
       </c>
@@ -12438,8 +13392,10 @@
       <c r="L263" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M263" s="1"/>
+      <c r="N263" s="1"/>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>316</v>
       </c>
@@ -12472,8 +13428,10 @@
       <c r="L264" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M264" s="1"/>
+      <c r="N264" s="1"/>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>34</v>
       </c>
@@ -12506,11 +13464,13 @@
       <c r="L265" s="1">
         <v>45143</v>
       </c>
-      <c r="M265" t="s">
+      <c r="M265" s="1"/>
+      <c r="N265" s="1"/>
+      <c r="O265" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>30</v>
       </c>
@@ -12543,11 +13503,13 @@
       <c r="L266" s="1">
         <v>45143</v>
       </c>
-      <c r="M266" t="s">
+      <c r="M266" s="1"/>
+      <c r="N266" s="1"/>
+      <c r="O266" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>23</v>
       </c>
@@ -12580,9 +13542,16 @@
       <c r="L267" s="1">
         <v>45149</v>
       </c>
+      <c r="M267" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="N267" s="1" t="s">
+        <v>782</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N267">
+  <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P267">
     <sortCondition ref="K1:K267"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/simplified_book_list.xlsx
+++ b/data/simplified_book_list.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aayushiverma/Documents/Github/My-Book-Stats/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C77F7C1-8994-9041-A319-FA2892B3B955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6067714-CAAA-E64D-A12D-B57FEE78A105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13780" yWindow="500" windowWidth="37420" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23540" yWindow="500" windowWidth="27660" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="goodreads_library_export" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">goodreads_library_export!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">goodreads_library_export!$A$1:$Q$1</definedName>
+    <definedName name="aa">goodreads_library_export!$XFD$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="800">
   <si>
     <t>Title</t>
   </si>
@@ -2367,9 +2368,6 @@
     <t>ownership_status</t>
   </si>
   <si>
-    <t>elementary-school</t>
-  </si>
-  <si>
     <t>high-school</t>
   </si>
   <si>
@@ -2427,9 +2425,6 @@
     <t>thriller</t>
   </si>
   <si>
-    <t>middle-school</t>
-  </si>
-  <si>
     <t>suspense;mystery</t>
   </si>
   <si>
@@ -2440,6 +2435,9 @@
   </si>
   <si>
     <t>history;new-zealand</t>
+  </si>
+  <si>
+    <t>Year Read</t>
   </si>
 </sst>
 </file>
@@ -3318,32 +3316,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P267"/>
+  <dimension ref="A1:Q267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J126" sqref="J126"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K159" sqref="K159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="55.5" customWidth="1"/>
-    <col min="2" max="2" width="22.5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="3.6640625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="27" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3375,25 +3375,28 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>799</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>778</v>
-      </c>
       <c r="N1" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="O1" t="s">
+        <v>793</v>
+      </c>
+      <c r="P1" t="s">
         <v>774</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>304</v>
       </c>
@@ -3423,19 +3426,16 @@
       <c r="J2">
         <v>1974</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>39258</v>
       </c>
-      <c r="L2" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1">
+        <v>45142</v>
+      </c>
       <c r="N2" s="1"/>
-      <c r="O2" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>727</v>
       </c>
@@ -3465,19 +3465,16 @@
       <c r="J3">
         <v>1911</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>39406</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>45141</v>
       </c>
-      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>641</v>
       </c>
@@ -3507,19 +3504,16 @@
       <c r="J4">
         <v>2006</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>41135</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>45141</v>
       </c>
-      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>455</v>
       </c>
@@ -3549,19 +3543,16 @@
       <c r="J5">
         <v>2006</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>41538</v>
       </c>
-      <c r="L5" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1">
+        <v>45142</v>
+      </c>
       <c r="N5" s="1"/>
-      <c r="O5" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>649</v>
       </c>
@@ -3582,19 +3573,16 @@
       <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>41542</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>45141</v>
       </c>
-      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>484</v>
       </c>
@@ -3624,19 +3612,16 @@
       <c r="J7">
         <v>2002</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>41546</v>
       </c>
-      <c r="L7" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1">
+        <v>45142</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>447</v>
       </c>
@@ -3666,19 +3651,16 @@
       <c r="J8">
         <v>2010</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>41557</v>
       </c>
-      <c r="L8" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M8" s="1"/>
+      <c r="M8" s="1">
+        <v>45142</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>632</v>
       </c>
@@ -3708,19 +3690,16 @@
       <c r="J9">
         <v>2011</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>41612</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>45141</v>
       </c>
-      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -3750,19 +3729,16 @@
       <c r="J10">
         <v>2010</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>41613</v>
       </c>
-      <c r="L10" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1">
+        <v>45142</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>509</v>
       </c>
@@ -3786,19 +3762,16 @@
       <c r="J11">
         <v>2013</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>41680</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>45141</v>
       </c>
-      <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>340</v>
       </c>
@@ -3828,19 +3801,16 @@
       <c r="J12">
         <v>2005</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>41708</v>
       </c>
-      <c r="L12" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1">
+        <v>45142</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>647</v>
       </c>
@@ -3870,19 +3840,16 @@
       <c r="J13">
         <v>2009</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>41747</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>45141</v>
       </c>
-      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>262</v>
       </c>
@@ -3912,19 +3879,16 @@
       <c r="J14">
         <v>2007</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>41802</v>
       </c>
-      <c r="L14" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1">
+        <v>45142</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>725</v>
       </c>
@@ -3951,19 +3915,16 @@
       <c r="J15">
         <v>2011</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>41820</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>45141</v>
       </c>
-      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>520</v>
       </c>
@@ -3996,17 +3957,14 @@
       <c r="J16">
         <v>1812</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>41865</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>45141</v>
       </c>
-      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" t="s">
-        <v>777</v>
-      </c>
+      <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -4035,17 +3993,14 @@
       <c r="J17">
         <v>2009</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>41885</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>45141</v>
       </c>
-      <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" t="s">
-        <v>777</v>
-      </c>
+      <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -4074,17 +4029,14 @@
       <c r="J18">
         <v>1998</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>41909</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>45141</v>
       </c>
-      <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" t="s">
-        <v>777</v>
-      </c>
+      <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -4119,17 +4071,14 @@
       <c r="J19">
         <v>1982</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>41963</v>
       </c>
-      <c r="L19" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1">
+        <v>45142</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" t="s">
-        <v>777</v>
-      </c>
+      <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -4161,17 +4110,14 @@
       <c r="J20">
         <v>2005</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>41997</v>
       </c>
-      <c r="L20" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1">
+        <v>45142</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" t="s">
-        <v>777</v>
-      </c>
+      <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -4203,17 +4149,14 @@
       <c r="J21">
         <v>2006</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>42001</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>45141</v>
       </c>
-      <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" t="s">
-        <v>777</v>
-      </c>
+      <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -4245,17 +4188,14 @@
       <c r="J22">
         <v>2011</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>42061</v>
       </c>
-      <c r="L22" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1">
+        <v>45142</v>
+      </c>
       <c r="N22" s="1"/>
-      <c r="O22" t="s">
-        <v>777</v>
-      </c>
+      <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -4287,17 +4227,14 @@
       <c r="J23">
         <v>2012</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>42097</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>45141</v>
       </c>
-      <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" t="s">
-        <v>777</v>
-      </c>
+      <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -4329,17 +4266,14 @@
       <c r="J24">
         <v>2012</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>42114</v>
       </c>
-      <c r="L24" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M24" s="1"/>
+      <c r="M24" s="1">
+        <v>45142</v>
+      </c>
       <c r="N24" s="1"/>
-      <c r="O24" t="s">
-        <v>777</v>
-      </c>
+      <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -4371,20 +4305,17 @@
       <c r="J25">
         <v>1999</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <v>42130</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <v>45143</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>779</v>
-      </c>
       <c r="N25" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="O25" t="s">
-        <v>777</v>
+        <v>778</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -4411,17 +4342,14 @@
       <c r="I26">
         <v>2016</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <v>42182</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>45141</v>
       </c>
-      <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" t="s">
-        <v>777</v>
-      </c>
+      <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -4453,17 +4381,14 @@
       <c r="J27">
         <v>2011</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <v>42214</v>
       </c>
-      <c r="L27" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M27" s="1"/>
+      <c r="M27" s="1">
+        <v>45142</v>
+      </c>
       <c r="N27" s="1"/>
-      <c r="O27" t="s">
-        <v>777</v>
-      </c>
+      <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -4489,17 +4414,14 @@
       <c r="I28">
         <v>2017</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="1">
         <v>42231</v>
       </c>
-      <c r="L28" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M28" s="1"/>
+      <c r="M28" s="1">
+        <v>45142</v>
+      </c>
       <c r="N28" s="1"/>
-      <c r="O28" t="s">
-        <v>777</v>
-      </c>
+      <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -4531,17 +4453,14 @@
       <c r="J29">
         <v>2005</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="1">
         <v>42257</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <v>45141</v>
       </c>
-      <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" t="s">
-        <v>777</v>
-      </c>
+      <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -4570,19 +4489,16 @@
       <c r="J30">
         <v>2002</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <v>42267</v>
       </c>
-      <c r="L30" s="1">
+      <c r="M30" s="1">
         <v>45141</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="N30" s="1"/>
-      <c r="O30" t="s">
-        <v>777</v>
-      </c>
+      <c r="N30" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -4614,17 +4530,14 @@
       <c r="J31">
         <v>2011</v>
       </c>
-      <c r="K31" s="1">
+      <c r="L31" s="1">
         <v>42375</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <v>45141</v>
       </c>
-      <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" t="s">
-        <v>777</v>
-      </c>
+      <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -4656,19 +4569,16 @@
       <c r="J32">
         <v>2007</v>
       </c>
-      <c r="K32" s="1">
+      <c r="L32" s="1">
         <v>42566</v>
       </c>
-      <c r="L32" s="1">
+      <c r="M32" s="1">
         <v>45141</v>
       </c>
-      <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>602</v>
       </c>
@@ -4701,19 +4611,16 @@
       <c r="J33">
         <v>2016</v>
       </c>
-      <c r="K33" s="1">
+      <c r="L33" s="1">
         <v>42621</v>
       </c>
-      <c r="L33" s="1">
+      <c r="M33" s="1">
         <v>45141</v>
       </c>
-      <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>361</v>
       </c>
@@ -4740,19 +4647,16 @@
       <c r="J34">
         <v>2015</v>
       </c>
-      <c r="K34" s="1">
+      <c r="L34" s="1">
         <v>42728</v>
       </c>
-      <c r="L34" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M34" s="1"/>
+      <c r="M34" s="1">
+        <v>45142</v>
+      </c>
       <c r="N34" s="1"/>
-      <c r="O34" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>586</v>
       </c>
@@ -4782,19 +4686,16 @@
       <c r="J35">
         <v>2012</v>
       </c>
-      <c r="K35" s="1">
+      <c r="L35" s="1">
         <v>42731</v>
       </c>
-      <c r="L35" s="1">
+      <c r="M35" s="1">
         <v>45141</v>
       </c>
-      <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>436</v>
       </c>
@@ -4824,19 +4725,16 @@
       <c r="J36">
         <v>2012</v>
       </c>
-      <c r="K36" s="1">
+      <c r="L36" s="1">
         <v>42806</v>
       </c>
-      <c r="L36" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M36" s="1"/>
+      <c r="M36" s="1">
+        <v>45142</v>
+      </c>
       <c r="N36" s="1"/>
-      <c r="O36" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -4863,26 +4761,23 @@
       <c r="I37">
         <v>2013</v>
       </c>
-      <c r="K37" s="1">
+      <c r="L37" s="1">
         <v>43145</v>
       </c>
-      <c r="L37" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" s="1">
+        <v>45142</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="O37" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="O37" t="s">
-        <v>777</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q37" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -4915,26 +4810,26 @@
       <c r="J38">
         <v>2004</v>
       </c>
-      <c r="K38" s="1">
+      <c r="L38" s="1">
         <v>43149</v>
       </c>
-      <c r="L38" s="1">
+      <c r="M38" s="1">
         <v>45149</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="P38" t="s">
         <v>782</v>
       </c>
-      <c r="O38" t="s">
-        <v>783</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -4955,26 +4850,26 @@
       <c r="G39" t="s">
         <v>15</v>
       </c>
-      <c r="K39" s="1">
+      <c r="L39" s="1">
         <v>43149</v>
       </c>
-      <c r="L39" s="1">
+      <c r="M39" s="1">
         <v>45149</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="N39" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="P39" t="s">
         <v>782</v>
       </c>
-      <c r="O39" t="s">
-        <v>783</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -5007,26 +4902,26 @@
       <c r="J40">
         <v>2012</v>
       </c>
-      <c r="K40" s="1">
+      <c r="L40" s="1">
         <v>43149</v>
       </c>
-      <c r="L40" s="1">
+      <c r="M40" s="1">
         <v>45149</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>779</v>
-      </c>
       <c r="N40" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="P40" t="s">
         <v>782</v>
       </c>
-      <c r="O40" t="s">
-        <v>783</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -5056,23 +4951,23 @@
       <c r="J41">
         <v>2011</v>
       </c>
-      <c r="K41" s="1">
+      <c r="L41" s="1">
         <v>43422</v>
       </c>
-      <c r="L41" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>784</v>
+      <c r="M41" s="1">
+        <v>45142</v>
       </c>
       <c r="N41" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="P41" t="s">
         <v>782</v>
       </c>
-      <c r="O41" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>108</v>
       </c>
@@ -5105,20 +5000,20 @@
       <c r="J42">
         <v>1991</v>
       </c>
-      <c r="K42" s="1">
+      <c r="L42" s="1">
         <v>44006</v>
       </c>
-      <c r="L42" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>784</v>
+      <c r="M42" s="1">
+        <v>45142</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+        <v>783</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -5151,20 +5046,20 @@
       <c r="J43">
         <v>2018</v>
       </c>
-      <c r="K43" s="1">
+      <c r="L43" s="1">
         <v>44006</v>
       </c>
-      <c r="L43" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>784</v>
+      <c r="M43" s="1">
+        <v>45142</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+        <v>783</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>135</v>
       </c>
@@ -5194,20 +5089,20 @@
       <c r="J44">
         <v>2010</v>
       </c>
-      <c r="K44" s="1">
+      <c r="L44" s="1">
         <v>44006</v>
       </c>
-      <c r="L44" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" s="1">
+        <v>45142</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="N44" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -5237,20 +5132,20 @@
       <c r="J45">
         <v>2014</v>
       </c>
-      <c r="K45" s="1">
+      <c r="L45" s="1">
         <v>44078</v>
       </c>
-      <c r="L45" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>786</v>
+      <c r="M45" s="1">
+        <v>45142</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+        <v>785</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>146</v>
       </c>
@@ -5280,16 +5175,16 @@
       <c r="J46">
         <v>2019</v>
       </c>
-      <c r="K46" s="1">
+      <c r="L46" s="1">
         <v>44194</v>
       </c>
-      <c r="L46" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M46" s="1"/>
+      <c r="M46" s="1">
+        <v>45142</v>
+      </c>
       <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>175</v>
       </c>
@@ -5319,16 +5214,16 @@
       <c r="J47">
         <v>2019</v>
       </c>
-      <c r="K47" s="1">
+      <c r="L47" s="1">
         <v>44194</v>
       </c>
-      <c r="L47" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M47" s="1"/>
+      <c r="M47" s="1">
+        <v>45142</v>
+      </c>
       <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>241</v>
       </c>
@@ -5358,16 +5253,16 @@
       <c r="J48">
         <v>2019</v>
       </c>
-      <c r="K48" s="1">
+      <c r="L48" s="1">
         <v>44194</v>
       </c>
-      <c r="L48" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M48" s="1"/>
+      <c r="M48" s="1">
+        <v>45142</v>
+      </c>
       <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>172</v>
       </c>
@@ -5397,16 +5292,16 @@
       <c r="J49">
         <v>2018</v>
       </c>
-      <c r="K49" s="1">
+      <c r="L49" s="1">
         <v>44194</v>
       </c>
-      <c r="L49" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M49" s="1"/>
+      <c r="M49" s="1">
+        <v>45142</v>
+      </c>
       <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>128</v>
       </c>
@@ -5436,20 +5331,20 @@
       <c r="J50">
         <v>2020</v>
       </c>
-      <c r="K50" s="1">
+      <c r="L50" s="1">
         <v>44205</v>
       </c>
-      <c r="L50" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>792</v>
+      <c r="M50" s="1">
+        <v>45142</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+        <v>791</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>212</v>
       </c>
@@ -5479,16 +5374,16 @@
       <c r="J51">
         <v>2020</v>
       </c>
-      <c r="K51" s="1">
+      <c r="L51" s="1">
         <v>44205</v>
       </c>
-      <c r="L51" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M51" s="1"/>
+      <c r="M51" s="1">
+        <v>45142</v>
+      </c>
       <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -5518,20 +5413,20 @@
       <c r="J52">
         <v>2014</v>
       </c>
-      <c r="K52" s="1">
+      <c r="L52" s="1">
         <v>44205</v>
       </c>
-      <c r="L52" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>786</v>
+      <c r="M52" s="1">
+        <v>45142</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+        <v>785</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>165</v>
       </c>
@@ -5561,16 +5456,16 @@
       <c r="J53">
         <v>2020</v>
       </c>
-      <c r="K53" s="1">
+      <c r="L53" s="1">
         <v>44205</v>
       </c>
-      <c r="L53" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M53" s="1"/>
+      <c r="M53" s="1">
+        <v>45142</v>
+      </c>
       <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -5600,20 +5495,20 @@
       <c r="J54">
         <v>1997</v>
       </c>
-      <c r="K54" s="1">
+      <c r="L54" s="1">
         <v>44205</v>
       </c>
-      <c r="L54" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>786</v>
+      <c r="M54" s="1">
+        <v>45142</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+        <v>785</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>168</v>
       </c>
@@ -5646,16 +5541,16 @@
       <c r="J55">
         <v>2017</v>
       </c>
-      <c r="K55" s="1">
+      <c r="L55" s="1">
         <v>44205</v>
       </c>
-      <c r="L55" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M55" s="1"/>
+      <c r="M55" s="1">
+        <v>45142</v>
+      </c>
       <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>195</v>
       </c>
@@ -5688,18 +5583,18 @@
       <c r="J56">
         <v>2019</v>
       </c>
-      <c r="K56" s="1">
+      <c r="L56" s="1">
         <v>44205</v>
       </c>
-      <c r="L56" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M56" s="1">
+        <v>45142</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -5729,20 +5624,20 @@
       <c r="J57">
         <v>2015</v>
       </c>
-      <c r="K57" s="1">
+      <c r="L57" s="1">
         <v>44205</v>
       </c>
-      <c r="L57" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>788</v>
+      <c r="M57" s="1">
+        <v>45142</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -5775,20 +5670,20 @@
       <c r="J58">
         <v>2004</v>
       </c>
-      <c r="K58" s="1">
+      <c r="L58" s="1">
         <v>44255</v>
       </c>
-      <c r="L58" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>786</v>
+      <c r="M58" s="1">
+        <v>45142</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+        <v>785</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>192</v>
       </c>
@@ -5818,16 +5713,16 @@
       <c r="J59">
         <v>2018</v>
       </c>
-      <c r="K59" s="1">
+      <c r="L59" s="1">
         <v>44255</v>
       </c>
-      <c r="L59" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M59" s="1"/>
+      <c r="M59" s="1">
+        <v>45142</v>
+      </c>
       <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>91</v>
       </c>
@@ -5857,20 +5752,20 @@
       <c r="J60">
         <v>2015</v>
       </c>
-      <c r="K60" s="1">
+      <c r="L60" s="1">
         <v>44255</v>
       </c>
-      <c r="L60" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>787</v>
+      <c r="M60" s="1">
+        <v>45142</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+        <v>786</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>202</v>
       </c>
@@ -5900,16 +5795,16 @@
       <c r="J61">
         <v>2019</v>
       </c>
-      <c r="K61" s="1">
+      <c r="L61" s="1">
         <v>44255</v>
       </c>
-      <c r="L61" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M61" s="1"/>
+      <c r="M61" s="1">
+        <v>45142</v>
+      </c>
       <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>199</v>
       </c>
@@ -5939,16 +5834,16 @@
       <c r="J62">
         <v>2019</v>
       </c>
-      <c r="K62" s="1">
+      <c r="L62" s="1">
         <v>44255</v>
       </c>
-      <c r="L62" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M62" s="1"/>
+      <c r="M62" s="1">
+        <v>45142</v>
+      </c>
       <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>205</v>
       </c>
@@ -5978,16 +5873,16 @@
       <c r="J63">
         <v>2017</v>
       </c>
-      <c r="K63" s="1">
+      <c r="L63" s="1">
         <v>44255</v>
       </c>
-      <c r="L63" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M63" s="1"/>
+      <c r="M63" s="1">
+        <v>45142</v>
+      </c>
       <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>250</v>
       </c>
@@ -6017,16 +5912,16 @@
       <c r="J64">
         <v>2019</v>
       </c>
-      <c r="K64" s="1">
+      <c r="L64" s="1">
         <v>44275</v>
       </c>
-      <c r="L64" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M64" s="1"/>
+      <c r="M64" s="1">
+        <v>45142</v>
+      </c>
       <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -6053,20 +5948,20 @@
       <c r="I65">
         <v>2018</v>
       </c>
-      <c r="K65" s="1">
+      <c r="L65" s="1">
         <v>44275</v>
       </c>
-      <c r="L65" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>788</v>
+      <c r="M65" s="1">
+        <v>45142</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -6096,20 +5991,20 @@
       <c r="J66">
         <v>2018</v>
       </c>
-      <c r="K66" s="1">
+      <c r="L66" s="1">
         <v>44275</v>
       </c>
-      <c r="L66" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>788</v>
+      <c r="M66" s="1">
+        <v>45142</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -6139,20 +6034,20 @@
       <c r="J67">
         <v>2014</v>
       </c>
-      <c r="K67" s="1">
+      <c r="L67" s="1">
         <v>44275</v>
       </c>
-      <c r="L67" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>792</v>
+      <c r="M67" s="1">
+        <v>45142</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+        <v>791</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>181</v>
       </c>
@@ -6182,16 +6077,16 @@
       <c r="J68">
         <v>2013</v>
       </c>
-      <c r="K68" s="1">
+      <c r="L68" s="1">
         <v>44309</v>
       </c>
-      <c r="L68" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M68" s="1"/>
+      <c r="M68" s="1">
+        <v>45142</v>
+      </c>
       <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>154</v>
       </c>
@@ -6224,16 +6119,16 @@
       <c r="J69">
         <v>2016</v>
       </c>
-      <c r="K69" s="1">
+      <c r="L69" s="1">
         <v>44309</v>
       </c>
-      <c r="L69" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M69" s="1"/>
+      <c r="M69" s="1">
+        <v>45142</v>
+      </c>
       <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>101</v>
       </c>
@@ -6260,18 +6155,18 @@
       <c r="J70">
         <v>2020</v>
       </c>
-      <c r="K70" s="1">
+      <c r="L70" s="1">
         <v>44331</v>
       </c>
-      <c r="L70" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M70" s="1">
+        <v>45142</v>
+      </c>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>161</v>
       </c>
@@ -6298,16 +6193,16 @@
       <c r="J71">
         <v>2017</v>
       </c>
-      <c r="K71" s="1">
+      <c r="L71" s="1">
         <v>44331</v>
       </c>
-      <c r="L71" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M71" s="1"/>
+      <c r="M71" s="1">
+        <v>45142</v>
+      </c>
       <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="1"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>63</v>
       </c>
@@ -6334,20 +6229,20 @@
       <c r="I72">
         <v>2006</v>
       </c>
-      <c r="K72" s="1">
+      <c r="L72" s="1">
         <v>44331</v>
       </c>
-      <c r="L72" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>786</v>
+      <c r="M72" s="1">
+        <v>45142</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+        <v>785</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>243</v>
       </c>
@@ -6377,18 +6272,18 @@
       <c r="J73">
         <v>2005</v>
       </c>
-      <c r="K73" s="1">
+      <c r="L73" s="1">
         <v>44331</v>
       </c>
-      <c r="L73" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M73" s="1">
+        <v>45142</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="O73" s="1"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>238</v>
       </c>
@@ -6418,18 +6313,18 @@
       <c r="J74">
         <v>1936</v>
       </c>
-      <c r="K74" s="1">
+      <c r="L74" s="1">
         <v>44331</v>
       </c>
-      <c r="L74" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M74" s="1">
+        <v>45142</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="O74" s="1"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -6459,20 +6354,20 @@
       <c r="J75">
         <v>2020</v>
       </c>
-      <c r="K75" s="1">
+      <c r="L75" s="1">
         <v>44331</v>
       </c>
-      <c r="L75" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>788</v>
+      <c r="M75" s="1">
+        <v>45142</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -6505,18 +6400,18 @@
       <c r="J76">
         <v>1994</v>
       </c>
-      <c r="K76" s="1">
+      <c r="L76" s="1">
         <v>44331</v>
       </c>
-      <c r="L76" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M76" s="1">
+        <v>45142</v>
+      </c>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -6546,18 +6441,18 @@
       <c r="J77">
         <v>2016</v>
       </c>
-      <c r="K77" s="1">
+      <c r="L77" s="1">
         <v>44331</v>
       </c>
-      <c r="L77" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M77" s="1">
+        <v>45142</v>
+      </c>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>131</v>
       </c>
@@ -6590,18 +6485,18 @@
       <c r="J78">
         <v>2015</v>
       </c>
-      <c r="K78" s="1">
+      <c r="L78" s="1">
         <v>44331</v>
       </c>
-      <c r="L78" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M78" s="1">
+        <v>45142</v>
+      </c>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>215</v>
       </c>
@@ -6631,16 +6526,16 @@
       <c r="J79">
         <v>2020</v>
       </c>
-      <c r="K79" s="1">
+      <c r="L79" s="1">
         <v>44360</v>
       </c>
-      <c r="L79" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M79" s="1"/>
+      <c r="M79" s="1">
+        <v>45142</v>
+      </c>
       <c r="N79" s="1"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O79" s="1"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>226</v>
       </c>
@@ -6667,18 +6562,18 @@
       <c r="I80">
         <v>2017</v>
       </c>
-      <c r="K80" s="1">
+      <c r="L80" s="1">
         <v>44360</v>
       </c>
-      <c r="L80" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M80" s="1">
+        <v>45142</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="O80" s="1"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>188</v>
       </c>
@@ -6708,18 +6603,18 @@
       <c r="I81">
         <v>2017</v>
       </c>
-      <c r="K81" s="1">
+      <c r="L81" s="1">
         <v>44360</v>
       </c>
-      <c r="L81" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="N81" s="1"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M81" s="1">
+        <v>45142</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="O81" s="1"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>235</v>
       </c>
@@ -6749,16 +6644,16 @@
       <c r="J82">
         <v>2019</v>
       </c>
-      <c r="K82" s="1">
+      <c r="L82" s="1">
         <v>44360</v>
       </c>
-      <c r="L82" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M82" s="1"/>
+      <c r="M82" s="1">
+        <v>45142</v>
+      </c>
       <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O82" s="1"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>218</v>
       </c>
@@ -6788,16 +6683,16 @@
       <c r="J83">
         <v>2020</v>
       </c>
-      <c r="K83" s="1">
+      <c r="L83" s="1">
         <v>44360</v>
       </c>
-      <c r="L83" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M83" s="1"/>
+      <c r="M83" s="1">
+        <v>45142</v>
+      </c>
       <c r="N83" s="1"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="1"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -6824,20 +6719,20 @@
       <c r="I84">
         <v>2014</v>
       </c>
-      <c r="K84" s="1">
+      <c r="L84" s="1">
         <v>44360</v>
       </c>
-      <c r="L84" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>786</v>
+      <c r="M84" s="1">
+        <v>45142</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+        <v>785</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>220</v>
       </c>
@@ -6867,18 +6762,18 @@
       <c r="J85">
         <v>1820</v>
       </c>
-      <c r="K85" s="1">
+      <c r="L85" s="1">
         <v>44360</v>
       </c>
-      <c r="L85" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="N85" s="1"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M85" s="1">
+        <v>45142</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="O85" s="1"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>223</v>
       </c>
@@ -6908,16 +6803,16 @@
       <c r="J86">
         <v>2019</v>
       </c>
-      <c r="K86" s="1">
+      <c r="L86" s="1">
         <v>44360</v>
       </c>
-      <c r="L86" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M86" s="1"/>
+      <c r="M86" s="1">
+        <v>45142</v>
+      </c>
       <c r="N86" s="1"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="1"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>732</v>
       </c>
@@ -6947,16 +6842,16 @@
       <c r="J87">
         <v>2017</v>
       </c>
-      <c r="K87" s="1">
+      <c r="L87" s="1">
         <v>44445</v>
       </c>
-      <c r="L87" s="1">
+      <c r="M87" s="1">
         <v>45141</v>
       </c>
-      <c r="M87" s="1"/>
       <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="1"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>253</v>
       </c>
@@ -6986,16 +6881,16 @@
       <c r="J88">
         <v>2017</v>
       </c>
-      <c r="K88" s="1">
+      <c r="L88" s="1">
         <v>44445</v>
       </c>
-      <c r="L88" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M88" s="1"/>
+      <c r="M88" s="1">
+        <v>45142</v>
+      </c>
       <c r="N88" s="1"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="1"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>151</v>
       </c>
@@ -7025,16 +6920,16 @@
       <c r="J89">
         <v>2019</v>
       </c>
-      <c r="K89" s="1">
+      <c r="L89" s="1">
         <v>44445</v>
       </c>
-      <c r="L89" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M89" s="1"/>
+      <c r="M89" s="1">
+        <v>45142</v>
+      </c>
       <c r="N89" s="1"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="1"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>183</v>
       </c>
@@ -7064,16 +6959,16 @@
       <c r="J90">
         <v>2017</v>
       </c>
-      <c r="K90" s="1">
+      <c r="L90" s="1">
         <v>44445</v>
       </c>
-      <c r="L90" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M90" s="1"/>
+      <c r="M90" s="1">
+        <v>45142</v>
+      </c>
       <c r="N90" s="1"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O90" s="1"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>158</v>
       </c>
@@ -7103,16 +6998,16 @@
       <c r="J91">
         <v>2021</v>
       </c>
-      <c r="K91" s="1">
+      <c r="L91" s="1">
         <v>44445</v>
       </c>
-      <c r="L91" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M91" s="1"/>
+      <c r="M91" s="1">
+        <v>45142</v>
+      </c>
       <c r="N91" s="1"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="1"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>148</v>
       </c>
@@ -7142,16 +7037,16 @@
       <c r="J92">
         <v>2019</v>
       </c>
-      <c r="K92" s="1">
+      <c r="L92" s="1">
         <v>44445</v>
       </c>
-      <c r="L92" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M92" s="1"/>
+      <c r="M92" s="1">
+        <v>45142</v>
+      </c>
       <c r="N92" s="1"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="1"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -7184,20 +7079,20 @@
       <c r="J93">
         <v>2021</v>
       </c>
-      <c r="K93" s="1">
+      <c r="L93" s="1">
         <v>44445</v>
       </c>
-      <c r="L93" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>793</v>
+      <c r="M93" s="1">
+        <v>45142</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -7227,18 +7122,18 @@
       <c r="J94">
         <v>2018</v>
       </c>
-      <c r="K94" s="1">
+      <c r="L94" s="1">
         <v>44445</v>
       </c>
-      <c r="L94" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="N94" s="1"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M94" s="1">
+        <v>45142</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="O94" s="1"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>750</v>
       </c>
@@ -7271,23 +7166,23 @@
       <c r="J95">
         <v>1999</v>
       </c>
-      <c r="K95" s="1">
+      <c r="L95" s="1">
         <v>44762</v>
       </c>
-      <c r="L95" s="1">
+      <c r="M95" s="1">
         <v>45118</v>
       </c>
-      <c r="M95" t="s">
+      <c r="N95" t="s">
         <v>754</v>
       </c>
-      <c r="N95" s="1" t="s">
+      <c r="O95" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="P95" t="s">
         <v>782</v>
       </c>
-      <c r="O95" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>755</v>
       </c>
@@ -7317,23 +7212,23 @@
       <c r="I96">
         <v>2020</v>
       </c>
-      <c r="K96" s="1">
+      <c r="L96" s="1">
         <v>44819</v>
       </c>
-      <c r="L96" s="1">
+      <c r="M96" s="1">
         <v>45118</v>
       </c>
-      <c r="M96" t="s">
+      <c r="N96" t="s">
         <v>754</v>
       </c>
-      <c r="N96" s="1" t="s">
+      <c r="O96" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="P96" t="s">
         <v>782</v>
       </c>
-      <c r="O96" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>747</v>
       </c>
@@ -7363,15 +7258,15 @@
       <c r="J97">
         <v>2017</v>
       </c>
-      <c r="K97" s="1">
+      <c r="L97" s="1">
         <v>44946</v>
       </c>
-      <c r="L97" s="1">
+      <c r="M97" s="1">
         <v>45141</v>
       </c>
-      <c r="N97" s="1"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="1"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>745</v>
       </c>
@@ -7395,18 +7290,18 @@
       <c r="J98">
         <v>2020</v>
       </c>
-      <c r="K98" s="1">
+      <c r="L98" s="1">
         <v>44947</v>
       </c>
-      <c r="L98" s="1">
+      <c r="M98" s="1">
         <v>45141</v>
       </c>
-      <c r="M98" t="s">
-        <v>795</v>
-      </c>
-      <c r="N98" s="1"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N98" t="s">
+        <v>794</v>
+      </c>
+      <c r="O98" s="1"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>737</v>
       </c>
@@ -7436,15 +7331,15 @@
       <c r="J99">
         <v>2017</v>
       </c>
-      <c r="K99" s="1">
+      <c r="L99" s="1">
         <v>44954</v>
       </c>
-      <c r="L99" s="1">
+      <c r="M99" s="1">
         <v>45141</v>
       </c>
-      <c r="N99" s="1"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="1"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>734</v>
       </c>
@@ -7474,18 +7369,18 @@
       <c r="J100">
         <v>2018</v>
       </c>
-      <c r="K100" s="1">
+      <c r="L100" s="1">
         <v>44954</v>
       </c>
-      <c r="L100" s="1">
+      <c r="M100" s="1">
         <v>45141</v>
       </c>
-      <c r="M100" t="s">
-        <v>797</v>
-      </c>
-      <c r="N100" s="1"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N100" t="s">
+        <v>795</v>
+      </c>
+      <c r="O100" s="1"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>759</v>
       </c>
@@ -7518,23 +7413,23 @@
       <c r="J101">
         <v>1994</v>
       </c>
-      <c r="K101" s="1">
+      <c r="L101" s="1">
         <v>44957</v>
       </c>
-      <c r="L101" s="1">
+      <c r="M101" s="1">
         <v>45118</v>
       </c>
-      <c r="M101" t="s">
+      <c r="N101" t="s">
         <v>754</v>
       </c>
-      <c r="N101" s="1" t="s">
+      <c r="O101" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="P101" t="s">
         <v>782</v>
       </c>
-      <c r="O101" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>739</v>
       </c>
@@ -7567,18 +7462,18 @@
       <c r="J102">
         <v>1998</v>
       </c>
-      <c r="K102" s="1">
+      <c r="L102" s="1">
         <v>44961</v>
       </c>
-      <c r="L102" s="1">
+      <c r="M102" s="1">
         <v>45141</v>
       </c>
-      <c r="M102" t="s">
-        <v>798</v>
-      </c>
-      <c r="N102" s="1"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N102" t="s">
+        <v>796</v>
+      </c>
+      <c r="O102" s="1"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>743</v>
       </c>
@@ -7608,15 +7503,15 @@
       <c r="J103">
         <v>2015</v>
       </c>
-      <c r="K103" s="1">
+      <c r="L103" s="1">
         <v>44961</v>
       </c>
-      <c r="L103" s="1">
+      <c r="M103" s="1">
         <v>45141</v>
       </c>
-      <c r="N103" s="1"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O103" s="1"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>722</v>
       </c>
@@ -7646,15 +7541,15 @@
       <c r="J104">
         <v>2019</v>
       </c>
-      <c r="K104" s="1">
+      <c r="L104" s="1">
         <v>45011</v>
       </c>
-      <c r="L104" s="1">
+      <c r="M104" s="1">
         <v>45141</v>
       </c>
-      <c r="N104" s="1"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O104" s="1"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>763</v>
       </c>
@@ -7684,23 +7579,23 @@
       <c r="J105">
         <v>2011</v>
       </c>
-      <c r="K105" s="1">
+      <c r="L105" s="1">
         <v>45017</v>
       </c>
-      <c r="L105" s="1">
+      <c r="M105" s="1">
         <v>45118</v>
       </c>
-      <c r="M105" t="s">
+      <c r="N105" t="s">
         <v>754</v>
       </c>
-      <c r="N105" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="O105" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O105" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="P105" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>766</v>
       </c>
@@ -7727,23 +7622,23 @@
       <c r="J106">
         <v>2014</v>
       </c>
-      <c r="K106" s="1">
+      <c r="L106" s="1">
         <v>45078</v>
       </c>
-      <c r="L106" s="1">
+      <c r="M106" s="1">
         <v>45118</v>
       </c>
-      <c r="M106" t="s">
+      <c r="N106" t="s">
         <v>754</v>
       </c>
-      <c r="N106" s="1" t="s">
+      <c r="O106" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="P106" t="s">
         <v>782</v>
       </c>
-      <c r="O106" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>27</v>
       </c>
@@ -7773,18 +7668,18 @@
       <c r="J107">
         <v>2016</v>
       </c>
-      <c r="K107" s="1">
-        <v>45149</v>
-      </c>
       <c r="L107" s="1">
         <v>45149</v>
       </c>
-      <c r="M107" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="N107" s="1"/>
-    </row>
-    <row r="108" spans="1:15" ht="23" x14ac:dyDescent="0.25">
+      <c r="M107" s="1">
+        <v>45149</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="O107" s="1"/>
+    </row>
+    <row r="108" spans="1:16" ht="23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>524</v>
       </c>
@@ -7814,19 +7709,19 @@
       <c r="J108">
         <v>2012</v>
       </c>
-      <c r="K108" s="2">
+      <c r="L108" s="2">
         <v>41744</v>
       </c>
-      <c r="L108" s="1">
+      <c r="M108" s="1">
         <v>45141</v>
       </c>
-      <c r="M108" s="1"/>
       <c r="N108" s="1"/>
-      <c r="O108" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="23" x14ac:dyDescent="0.25">
+      <c r="O108" s="1"/>
+      <c r="P108" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>696</v>
       </c>
@@ -7856,19 +7751,19 @@
       <c r="J109">
         <v>2012</v>
       </c>
-      <c r="K109" s="2">
+      <c r="L109" s="2">
         <v>42091</v>
       </c>
-      <c r="L109" s="1">
+      <c r="M109" s="1">
         <v>45141</v>
       </c>
-      <c r="M109" s="1"/>
       <c r="N109" s="1"/>
-      <c r="O109" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" ht="23" x14ac:dyDescent="0.25">
+      <c r="O109" s="1"/>
+      <c r="P109" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>519</v>
       </c>
@@ -7895,19 +7790,19 @@
       <c r="J110">
         <v>2013</v>
       </c>
-      <c r="K110" s="2">
+      <c r="L110" s="2">
         <v>42269</v>
       </c>
-      <c r="L110" s="1">
+      <c r="M110" s="1">
         <v>45141</v>
       </c>
-      <c r="M110" s="1"/>
       <c r="N110" s="1"/>
-      <c r="O110" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="23" x14ac:dyDescent="0.25">
+      <c r="O110" s="1"/>
+      <c r="P110" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>690</v>
       </c>
@@ -7937,19 +7832,19 @@
       <c r="J111">
         <v>2014</v>
       </c>
-      <c r="K111" s="2">
+      <c r="L111" s="2">
         <v>42182</v>
       </c>
-      <c r="L111" s="1">
+      <c r="M111" s="1">
         <v>45141</v>
       </c>
-      <c r="M111" s="1"/>
       <c r="N111" s="1"/>
-      <c r="O111" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" ht="23" x14ac:dyDescent="0.25">
+      <c r="O111" s="1"/>
+      <c r="P111" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>501</v>
       </c>
@@ -7979,19 +7874,19 @@
       <c r="J112">
         <v>2006</v>
       </c>
-      <c r="K112" s="2">
+      <c r="L112" s="2">
         <v>41707</v>
       </c>
-      <c r="L112" s="1">
+      <c r="M112" s="1">
         <v>45141</v>
       </c>
-      <c r="M112" s="1"/>
       <c r="N112" s="1"/>
-      <c r="O112" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" ht="23" x14ac:dyDescent="0.25">
+      <c r="O112" s="1"/>
+      <c r="P112" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>644</v>
       </c>
@@ -8021,19 +7916,19 @@
       <c r="J113">
         <v>2009</v>
       </c>
-      <c r="K113" s="2">
+      <c r="L113" s="2">
         <v>41645</v>
       </c>
-      <c r="L113" s="1">
+      <c r="M113" s="1">
         <v>45141</v>
       </c>
-      <c r="M113" s="1"/>
       <c r="N113" s="1"/>
-      <c r="O113" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" ht="23" x14ac:dyDescent="0.25">
+      <c r="O113" s="1"/>
+      <c r="P113" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>541</v>
       </c>
@@ -8063,19 +7958,19 @@
       <c r="J114">
         <v>2012</v>
       </c>
-      <c r="K114" s="2">
+      <c r="L114" s="2">
         <v>42010</v>
       </c>
-      <c r="L114" s="1">
+      <c r="M114" s="1">
         <v>45141</v>
       </c>
-      <c r="M114" s="1"/>
       <c r="N114" s="1"/>
-      <c r="O114" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="23" x14ac:dyDescent="0.25">
+      <c r="O114" s="1"/>
+      <c r="P114" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>664</v>
       </c>
@@ -8102,19 +7997,19 @@
       <c r="J115">
         <v>2011</v>
       </c>
-      <c r="K115" s="2">
+      <c r="L115" s="2">
         <v>41988</v>
       </c>
-      <c r="L115" s="1">
+      <c r="M115" s="1">
         <v>45141</v>
       </c>
-      <c r="M115" s="1"/>
       <c r="N115" s="1"/>
-      <c r="O115" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="23" x14ac:dyDescent="0.25">
+      <c r="O115" s="1"/>
+      <c r="P115" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>614</v>
       </c>
@@ -8144,19 +8039,19 @@
       <c r="J116">
         <v>2011</v>
       </c>
-      <c r="K116" s="2">
+      <c r="L116" s="2">
         <v>42065</v>
       </c>
-      <c r="L116" s="1">
+      <c r="M116" s="1">
         <v>45141</v>
       </c>
-      <c r="M116" s="1"/>
       <c r="N116" s="1"/>
-      <c r="O116" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O116" s="1"/>
+      <c r="P116" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>719</v>
       </c>
@@ -8186,18 +8081,18 @@
       <c r="J117">
         <v>2017</v>
       </c>
-      <c r="K117" s="1">
+      <c r="L117" s="1">
         <v>45061</v>
       </c>
-      <c r="L117" s="1">
+      <c r="M117" s="1">
         <v>45141</v>
       </c>
-      <c r="M117" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="N117" s="1"/>
-    </row>
-    <row r="118" spans="1:15" ht="23" x14ac:dyDescent="0.25">
+      <c r="N117" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="O117" s="1"/>
+    </row>
+    <row r="118" spans="1:16" ht="23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>496</v>
       </c>
@@ -8227,19 +8122,19 @@
       <c r="J118">
         <v>2011</v>
       </c>
-      <c r="K118" s="2">
+      <c r="L118" s="2">
         <v>42696</v>
       </c>
-      <c r="L118" s="1">
+      <c r="M118" s="1">
         <v>45141</v>
       </c>
-      <c r="M118" s="1"/>
       <c r="N118" s="1"/>
-      <c r="O118" s="6" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" ht="23" x14ac:dyDescent="0.25">
+      <c r="O118" s="1"/>
+      <c r="P118" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>578</v>
       </c>
@@ -8267,19 +8162,19 @@
       <c r="J119">
         <v>2011</v>
       </c>
-      <c r="K119" s="2">
+      <c r="L119" s="2">
         <v>42317</v>
       </c>
-      <c r="L119" s="1">
+      <c r="M119" s="1">
         <v>45141</v>
       </c>
-      <c r="M119" s="1"/>
       <c r="N119" s="1"/>
-      <c r="O119" s="6" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" ht="23" x14ac:dyDescent="0.25">
+      <c r="O119" s="1"/>
+      <c r="P119" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>621</v>
       </c>
@@ -8308,19 +8203,19 @@
       <c r="J120">
         <v>2011</v>
       </c>
-      <c r="K120" s="2">
+      <c r="L120" s="2">
         <v>42360</v>
       </c>
-      <c r="L120" s="1">
+      <c r="M120" s="1">
         <v>45141</v>
       </c>
-      <c r="M120" s="1"/>
       <c r="N120" s="1"/>
-      <c r="O120" s="6" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" ht="23" x14ac:dyDescent="0.25">
+      <c r="O120" s="1"/>
+      <c r="P120" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>507</v>
       </c>
@@ -8350,19 +8245,19 @@
       <c r="J121">
         <v>2007</v>
       </c>
-      <c r="K121" s="2">
+      <c r="L121" s="2">
         <v>42549</v>
       </c>
-      <c r="L121" s="1">
+      <c r="M121" s="1">
         <v>45141</v>
       </c>
-      <c r="M121" s="1"/>
       <c r="N121" s="1"/>
-      <c r="O121" s="6" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" ht="23" x14ac:dyDescent="0.25">
+      <c r="O121" s="1"/>
+      <c r="P121" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>554</v>
       </c>
@@ -8390,19 +8285,19 @@
       <c r="J122">
         <v>2005</v>
       </c>
-      <c r="K122" s="2">
+      <c r="L122" s="2">
         <v>42719</v>
       </c>
-      <c r="L122" s="1">
+      <c r="M122" s="1">
         <v>45141</v>
       </c>
-      <c r="M122" s="1"/>
       <c r="N122" s="1"/>
-      <c r="O122" s="6" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" ht="23" x14ac:dyDescent="0.25">
+      <c r="O122" s="1"/>
+      <c r="P122" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>652</v>
       </c>
@@ -8430,19 +8325,19 @@
       <c r="J123">
         <v>2011</v>
       </c>
-      <c r="K123" s="2">
+      <c r="L123" s="2">
         <v>42610</v>
       </c>
-      <c r="L123" s="1">
+      <c r="M123" s="1">
         <v>45141</v>
       </c>
-      <c r="M123" s="1"/>
       <c r="N123" s="1"/>
-      <c r="O123" s="6" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O123" s="1"/>
+      <c r="P123" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>698</v>
       </c>
@@ -8463,13 +8358,16 @@
       <c r="J124">
         <v>2011</v>
       </c>
-      <c r="L124" s="1">
+      <c r="K124">
+        <v>2015</v>
+      </c>
+      <c r="M124" s="1">
         <v>45141</v>
       </c>
-      <c r="M124" s="1"/>
       <c r="N124" s="1"/>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O124" s="1"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>711</v>
       </c>
@@ -8499,13 +8397,16 @@
       <c r="J125">
         <v>2009</v>
       </c>
-      <c r="L125" s="1">
+      <c r="K125">
+        <v>2014</v>
+      </c>
+      <c r="M125" s="1">
         <v>45141</v>
       </c>
-      <c r="M125" s="1"/>
       <c r="N125" s="1"/>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O125" s="1"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>611</v>
       </c>
@@ -8535,13 +8436,16 @@
       <c r="J126">
         <v>2011</v>
       </c>
-      <c r="L126" s="1">
+      <c r="K126">
+        <v>2015</v>
+      </c>
+      <c r="M126" s="1">
         <v>45141</v>
       </c>
-      <c r="M126" s="1"/>
       <c r="N126" s="1"/>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O126" s="1"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>549</v>
       </c>
@@ -8568,13 +8472,16 @@
       <c r="J127">
         <v>2010</v>
       </c>
-      <c r="L127" s="1">
+      <c r="K127">
+        <v>2015</v>
+      </c>
+      <c r="M127" s="1">
         <v>45141</v>
       </c>
-      <c r="M127" s="1"/>
       <c r="N127" s="1"/>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O127" s="1"/>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>668</v>
       </c>
@@ -8601,13 +8508,16 @@
       <c r="J128">
         <v>2001</v>
       </c>
-      <c r="L128" s="1">
+      <c r="K128">
+        <v>2014</v>
+      </c>
+      <c r="M128" s="1">
         <v>45141</v>
       </c>
-      <c r="M128" s="1"/>
       <c r="N128" s="1"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O128" s="1"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>490</v>
       </c>
@@ -8637,13 +8547,16 @@
       <c r="J129">
         <v>2003</v>
       </c>
-      <c r="L129" s="1">
+      <c r="K129">
+        <v>2014</v>
+      </c>
+      <c r="M129" s="1">
         <v>45141</v>
       </c>
-      <c r="M129" s="1"/>
       <c r="N129" s="1"/>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O129" s="1"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>713</v>
       </c>
@@ -8673,13 +8586,16 @@
       <c r="J130">
         <v>2014</v>
       </c>
-      <c r="L130" s="1">
+      <c r="K130">
+        <v>2015</v>
+      </c>
+      <c r="M130" s="1">
         <v>45141</v>
       </c>
-      <c r="M130" s="1"/>
       <c r="N130" s="1"/>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O130" s="1"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>628</v>
       </c>
@@ -8706,13 +8622,16 @@
       <c r="J131">
         <v>2011</v>
       </c>
-      <c r="L131" s="1">
+      <c r="K131">
+        <v>2014</v>
+      </c>
+      <c r="M131" s="1">
         <v>45141</v>
       </c>
-      <c r="M131" s="1"/>
       <c r="N131" s="1"/>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O131" s="1"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>511</v>
       </c>
@@ -8742,13 +8661,16 @@
       <c r="J132">
         <v>2010</v>
       </c>
-      <c r="L132" s="1">
+      <c r="K132">
+        <v>2014</v>
+      </c>
+      <c r="M132" s="1">
         <v>45141</v>
       </c>
-      <c r="M132" s="1"/>
       <c r="N132" s="1"/>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O132" s="1"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>674</v>
       </c>
@@ -8778,13 +8700,16 @@
       <c r="J133">
         <v>2011</v>
       </c>
-      <c r="L133" s="1">
+      <c r="K133">
+        <v>2015</v>
+      </c>
+      <c r="M133" s="1">
         <v>45141</v>
       </c>
-      <c r="M133" s="1"/>
       <c r="N133" s="1"/>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O133" s="1"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>530</v>
       </c>
@@ -8811,13 +8736,16 @@
       <c r="J134">
         <v>2011</v>
       </c>
-      <c r="L134" s="1">
+      <c r="K134">
+        <v>2015</v>
+      </c>
+      <c r="M134" s="1">
         <v>45141</v>
       </c>
-      <c r="M134" s="1"/>
       <c r="N134" s="1"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O134" s="1"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>708</v>
       </c>
@@ -8847,13 +8775,16 @@
       <c r="J135">
         <v>2010</v>
       </c>
-      <c r="L135" s="1">
+      <c r="K135">
+        <v>2014</v>
+      </c>
+      <c r="M135" s="1">
         <v>45141</v>
       </c>
-      <c r="M135" s="1"/>
       <c r="N135" s="1"/>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O135" s="1"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>599</v>
       </c>
@@ -8883,13 +8814,16 @@
       <c r="J136">
         <v>2006</v>
       </c>
-      <c r="L136" s="1">
+      <c r="K136">
+        <v>2015</v>
+      </c>
+      <c r="M136" s="1">
         <v>45141</v>
       </c>
-      <c r="M136" s="1"/>
       <c r="N136" s="1"/>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O136" s="1"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>517</v>
       </c>
@@ -8913,13 +8847,16 @@
       <c r="I137">
         <v>2013</v>
       </c>
-      <c r="L137" s="1">
+      <c r="K137">
+        <v>2015</v>
+      </c>
+      <c r="M137" s="1">
         <v>45141</v>
       </c>
-      <c r="M137" s="1"/>
       <c r="N137" s="1"/>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O137" s="1"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>705</v>
       </c>
@@ -8946,13 +8883,16 @@
       <c r="J138">
         <v>2012</v>
       </c>
-      <c r="L138" s="1">
+      <c r="K138">
+        <v>2015</v>
+      </c>
+      <c r="M138" s="1">
         <v>45141</v>
       </c>
-      <c r="M138" s="1"/>
       <c r="N138" s="1"/>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O138" s="1"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>655</v>
       </c>
@@ -8979,13 +8919,16 @@
       <c r="I139">
         <v>2018</v>
       </c>
-      <c r="L139" s="1">
+      <c r="K139">
+        <v>2015</v>
+      </c>
+      <c r="M139" s="1">
         <v>45141</v>
       </c>
-      <c r="M139" s="1"/>
       <c r="N139" s="1"/>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O139" s="1"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>516</v>
       </c>
@@ -9012,13 +8955,16 @@
       <c r="J140">
         <v>2010</v>
       </c>
-      <c r="L140" s="1">
+      <c r="K140">
+        <v>2015</v>
+      </c>
+      <c r="M140" s="1">
         <v>45141</v>
       </c>
-      <c r="M140" s="1"/>
       <c r="N140" s="1"/>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O140" s="1"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>639</v>
       </c>
@@ -9045,13 +8991,16 @@
       <c r="J141">
         <v>2013</v>
       </c>
-      <c r="L141" s="1">
+      <c r="K141">
+        <v>2014</v>
+      </c>
+      <c r="M141" s="1">
         <v>45141</v>
       </c>
-      <c r="M141" s="1"/>
       <c r="N141" s="1"/>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O141" s="1"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>543</v>
       </c>
@@ -9081,13 +9030,16 @@
       <c r="J142">
         <v>2009</v>
       </c>
-      <c r="L142" s="1">
+      <c r="K142">
+        <v>2015</v>
+      </c>
+      <c r="M142" s="1">
         <v>45141</v>
       </c>
-      <c r="M142" s="1"/>
       <c r="N142" s="1"/>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O142" s="1"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>499</v>
       </c>
@@ -9108,13 +9060,16 @@
       <c r="J143">
         <v>1991</v>
       </c>
-      <c r="L143" s="1">
+      <c r="K143">
+        <v>2013</v>
+      </c>
+      <c r="M143" s="1">
         <v>45141</v>
       </c>
-      <c r="M143" s="1"/>
       <c r="N143" s="1"/>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O143" s="1"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>681</v>
       </c>
@@ -9144,13 +9099,16 @@
       <c r="J144">
         <v>2012</v>
       </c>
-      <c r="L144" s="1">
+      <c r="K144">
+        <v>2016</v>
+      </c>
+      <c r="M144" s="1">
         <v>45141</v>
       </c>
-      <c r="M144" s="1"/>
       <c r="N144" s="1"/>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O144" s="1"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>546</v>
       </c>
@@ -9177,13 +9135,16 @@
       <c r="J145">
         <v>2013</v>
       </c>
-      <c r="L145" s="1">
+      <c r="K145">
+        <v>2015</v>
+      </c>
+      <c r="M145" s="1">
         <v>45141</v>
       </c>
-      <c r="M145" s="1"/>
       <c r="N145" s="1"/>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O145" s="1"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>580</v>
       </c>
@@ -9213,13 +9174,16 @@
       <c r="J146">
         <v>2014</v>
       </c>
-      <c r="L146" s="1">
+      <c r="K146">
+        <v>2016</v>
+      </c>
+      <c r="M146" s="1">
         <v>45141</v>
       </c>
-      <c r="M146" s="1"/>
       <c r="N146" s="1"/>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O146" s="1"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>629</v>
       </c>
@@ -9249,13 +9213,16 @@
       <c r="J147">
         <v>2009</v>
       </c>
-      <c r="L147" s="1">
+      <c r="K147">
+        <v>2014</v>
+      </c>
+      <c r="M147" s="1">
         <v>45141</v>
       </c>
-      <c r="M147" s="1"/>
       <c r="N147" s="1"/>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O147" s="1"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>527</v>
       </c>
@@ -9285,13 +9252,16 @@
       <c r="J148">
         <v>2010</v>
       </c>
-      <c r="L148" s="1">
+      <c r="K148">
+        <v>2014</v>
+      </c>
+      <c r="M148" s="1">
         <v>45141</v>
       </c>
-      <c r="M148" s="1"/>
       <c r="N148" s="1"/>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O148" s="1"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>716</v>
       </c>
@@ -9321,13 +9291,16 @@
       <c r="J149">
         <v>2014</v>
       </c>
-      <c r="L149" s="1">
+      <c r="K149">
+        <v>2014</v>
+      </c>
+      <c r="M149" s="1">
         <v>45141</v>
       </c>
-      <c r="M149" s="1"/>
       <c r="N149" s="1"/>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O149" s="1"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>617</v>
       </c>
@@ -9357,13 +9330,16 @@
       <c r="J150">
         <v>2009</v>
       </c>
-      <c r="L150" s="1">
+      <c r="K150">
+        <v>2013</v>
+      </c>
+      <c r="M150" s="1">
         <v>45141</v>
       </c>
-      <c r="M150" s="1"/>
       <c r="N150" s="1"/>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O150" s="1"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>606</v>
       </c>
@@ -9393,13 +9369,16 @@
       <c r="J151">
         <v>2011</v>
       </c>
-      <c r="L151" s="1">
+      <c r="K151">
+        <v>2015</v>
+      </c>
+      <c r="M151" s="1">
         <v>45141</v>
       </c>
-      <c r="M151" s="1"/>
       <c r="N151" s="1"/>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O151" s="1"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>551</v>
       </c>
@@ -9426,13 +9405,16 @@
       <c r="J152">
         <v>2011</v>
       </c>
-      <c r="L152" s="1">
+      <c r="K152">
+        <v>2016</v>
+      </c>
+      <c r="M152" s="1">
         <v>45141</v>
       </c>
-      <c r="M152" s="1"/>
       <c r="N152" s="1"/>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O152" s="1"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>572</v>
       </c>
@@ -9462,13 +9444,16 @@
       <c r="J153">
         <v>2013</v>
       </c>
-      <c r="L153" s="1">
+      <c r="K153">
+        <v>2014</v>
+      </c>
+      <c r="M153" s="1">
         <v>45141</v>
       </c>
-      <c r="M153" s="1"/>
       <c r="N153" s="1"/>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O153" s="1"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>538</v>
       </c>
@@ -9498,13 +9483,16 @@
       <c r="J154">
         <v>2010</v>
       </c>
-      <c r="L154" s="1">
+      <c r="K154">
+        <v>2013</v>
+      </c>
+      <c r="M154" s="1">
         <v>45141</v>
       </c>
-      <c r="M154" s="1"/>
       <c r="N154" s="1"/>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O154" s="1"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>560</v>
       </c>
@@ -9534,13 +9522,16 @@
       <c r="J155">
         <v>2013</v>
       </c>
-      <c r="L155" s="1">
+      <c r="K155">
+        <v>2014</v>
+      </c>
+      <c r="M155" s="1">
         <v>45141</v>
       </c>
-      <c r="M155" s="1"/>
       <c r="N155" s="1"/>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O155" s="1"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>591</v>
       </c>
@@ -9570,13 +9561,16 @@
       <c r="J156">
         <v>2012</v>
       </c>
-      <c r="L156" s="1">
+      <c r="K156">
+        <v>2013</v>
+      </c>
+      <c r="M156" s="1">
         <v>45141</v>
       </c>
-      <c r="M156" s="1"/>
       <c r="N156" s="1"/>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O156" s="1"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>575</v>
       </c>
@@ -9606,13 +9600,16 @@
       <c r="J157">
         <v>2011</v>
       </c>
-      <c r="L157" s="1">
+      <c r="K157">
+        <v>2013</v>
+      </c>
+      <c r="M157" s="1">
         <v>45141</v>
       </c>
-      <c r="M157" s="1"/>
       <c r="N157" s="1"/>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O157" s="1"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>624</v>
       </c>
@@ -9642,13 +9639,16 @@
       <c r="J158">
         <v>2013</v>
       </c>
-      <c r="L158" s="1">
+      <c r="K158">
+        <v>2013</v>
+      </c>
+      <c r="M158" s="1">
         <v>45141</v>
       </c>
-      <c r="M158" s="1"/>
       <c r="N158" s="1"/>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O158" s="1"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>563</v>
       </c>
@@ -9675,13 +9675,13 @@
       <c r="J159">
         <v>2012</v>
       </c>
-      <c r="L159" s="1">
+      <c r="M159" s="1">
         <v>45141</v>
       </c>
-      <c r="M159" s="1"/>
       <c r="N159" s="1"/>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O159" s="1"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>583</v>
       </c>
@@ -9711,13 +9711,13 @@
       <c r="J160">
         <v>2011</v>
       </c>
-      <c r="L160" s="1">
+      <c r="M160" s="1">
         <v>45141</v>
       </c>
-      <c r="M160" s="1"/>
       <c r="N160" s="1"/>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O160" s="1"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>702</v>
       </c>
@@ -9747,13 +9747,13 @@
       <c r="J161">
         <v>2011</v>
       </c>
-      <c r="L161" s="1">
+      <c r="M161" s="1">
         <v>45141</v>
       </c>
-      <c r="M161" s="1"/>
       <c r="N161" s="1"/>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O161" s="1"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>536</v>
       </c>
@@ -9780,13 +9780,13 @@
       <c r="J162">
         <v>2010</v>
       </c>
-      <c r="L162" s="1">
+      <c r="M162" s="1">
         <v>45141</v>
       </c>
-      <c r="M162" s="1"/>
       <c r="N162" s="1"/>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O162" s="1"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>661</v>
       </c>
@@ -9813,13 +9813,13 @@
       <c r="J163">
         <v>2014</v>
       </c>
-      <c r="L163" s="1">
+      <c r="M163" s="1">
         <v>45141</v>
       </c>
-      <c r="M163" s="1"/>
       <c r="N163" s="1"/>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O163" s="1"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>492</v>
       </c>
@@ -9852,13 +9852,13 @@
       <c r="J164">
         <v>2010</v>
       </c>
-      <c r="L164" s="1">
+      <c r="M164" s="1">
         <v>45141</v>
       </c>
-      <c r="M164" s="1"/>
       <c r="N164" s="1"/>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O164" s="1"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>671</v>
       </c>
@@ -9888,13 +9888,13 @@
       <c r="J165">
         <v>2010</v>
       </c>
-      <c r="L165" s="1">
+      <c r="M165" s="1">
         <v>45141</v>
       </c>
-      <c r="M165" s="1"/>
       <c r="N165" s="1"/>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O165" s="1"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>700</v>
       </c>
@@ -9924,13 +9924,13 @@
       <c r="J166">
         <v>2011</v>
       </c>
-      <c r="L166" s="1">
+      <c r="M166" s="1">
         <v>45141</v>
       </c>
-      <c r="M166" s="1"/>
       <c r="N166" s="1"/>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O166" s="1"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>557</v>
       </c>
@@ -9960,13 +9960,13 @@
       <c r="J167">
         <v>2014</v>
       </c>
-      <c r="L167" s="1">
+      <c r="M167" s="1">
         <v>45141</v>
       </c>
-      <c r="M167" s="1"/>
       <c r="N167" s="1"/>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O167" s="1"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>638</v>
       </c>
@@ -9996,13 +9996,13 @@
       <c r="J168">
         <v>2012</v>
       </c>
-      <c r="L168" s="1">
+      <c r="M168" s="1">
         <v>45141</v>
       </c>
-      <c r="M168" s="1"/>
       <c r="N168" s="1"/>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O168" s="1"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>594</v>
       </c>
@@ -10029,13 +10029,13 @@
       <c r="J169">
         <v>2012</v>
       </c>
-      <c r="L169" s="1">
+      <c r="M169" s="1">
         <v>45141</v>
       </c>
-      <c r="M169" s="1"/>
       <c r="N169" s="1"/>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O169" s="1"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>730</v>
       </c>
@@ -10065,13 +10065,13 @@
       <c r="J170">
         <v>2015</v>
       </c>
-      <c r="L170" s="1">
+      <c r="M170" s="1">
         <v>45141</v>
       </c>
-      <c r="M170" s="1"/>
       <c r="N170" s="1"/>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O170" s="1"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>565</v>
       </c>
@@ -10101,13 +10101,13 @@
       <c r="J171">
         <v>2004</v>
       </c>
-      <c r="L171" s="1">
+      <c r="M171" s="1">
         <v>45141</v>
       </c>
-      <c r="M171" s="1"/>
       <c r="N171" s="1"/>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O171" s="1"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>684</v>
       </c>
@@ -10134,13 +10134,13 @@
       <c r="J172">
         <v>2011</v>
       </c>
-      <c r="L172" s="1">
+      <c r="M172" s="1">
         <v>45141</v>
       </c>
-      <c r="M172" s="1"/>
       <c r="N172" s="1"/>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O172" s="1"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>666</v>
       </c>
@@ -10170,13 +10170,13 @@
       <c r="J173">
         <v>2011</v>
       </c>
-      <c r="L173" s="1">
+      <c r="M173" s="1">
         <v>45141</v>
       </c>
-      <c r="M173" s="1"/>
       <c r="N173" s="1"/>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O173" s="1"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>635</v>
       </c>
@@ -10206,13 +10206,13 @@
       <c r="J174">
         <v>2011</v>
       </c>
-      <c r="L174" s="1">
+      <c r="M174" s="1">
         <v>45141</v>
       </c>
-      <c r="M174" s="1"/>
       <c r="N174" s="1"/>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O174" s="1"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>609</v>
       </c>
@@ -10242,13 +10242,13 @@
       <c r="J175">
         <v>2011</v>
       </c>
-      <c r="L175" s="1">
+      <c r="M175" s="1">
         <v>45141</v>
       </c>
-      <c r="M175" s="1"/>
       <c r="N175" s="1"/>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O175" s="1"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>710</v>
       </c>
@@ -10278,13 +10278,13 @@
       <c r="J176">
         <v>2012</v>
       </c>
-      <c r="L176" s="1">
+      <c r="M176" s="1">
         <v>45141</v>
       </c>
-      <c r="M176" s="1"/>
       <c r="N176" s="1"/>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O176" s="1"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>679</v>
       </c>
@@ -10311,13 +10311,13 @@
       <c r="J177">
         <v>2011</v>
       </c>
-      <c r="L177" s="1">
+      <c r="M177" s="1">
         <v>45141</v>
       </c>
-      <c r="M177" s="1"/>
       <c r="N177" s="1"/>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O177" s="1"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>620</v>
       </c>
@@ -10347,13 +10347,13 @@
       <c r="J178">
         <v>2011</v>
       </c>
-      <c r="L178" s="1">
+      <c r="M178" s="1">
         <v>45141</v>
       </c>
-      <c r="M178" s="1"/>
       <c r="N178" s="1"/>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O178" s="1"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>514</v>
       </c>
@@ -10380,13 +10380,13 @@
       <c r="J179">
         <v>2012</v>
       </c>
-      <c r="L179" s="1">
+      <c r="M179" s="1">
         <v>45141</v>
       </c>
-      <c r="M179" s="1"/>
       <c r="N179" s="1"/>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O179" s="1"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>597</v>
       </c>
@@ -10413,13 +10413,13 @@
       <c r="J180">
         <v>2011</v>
       </c>
-      <c r="L180" s="1">
+      <c r="M180" s="1">
         <v>45141</v>
       </c>
-      <c r="M180" s="1"/>
       <c r="N180" s="1"/>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O180" s="1"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>676</v>
       </c>
@@ -10449,13 +10449,13 @@
       <c r="J181">
         <v>2011</v>
       </c>
-      <c r="L181" s="1">
+      <c r="M181" s="1">
         <v>45141</v>
       </c>
-      <c r="M181" s="1"/>
       <c r="N181" s="1"/>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O181" s="1"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>178</v>
       </c>
@@ -10485,14 +10485,14 @@
       <c r="J182">
         <v>2019</v>
       </c>
-      <c r="K182" s="1"/>
-      <c r="L182" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1">
+        <v>45142</v>
+      </c>
       <c r="N182" s="1"/>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O182" s="1"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>326</v>
       </c>
@@ -10522,13 +10522,13 @@
       <c r="J183">
         <v>2010</v>
       </c>
-      <c r="L183" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M183" s="1"/>
+      <c r="M183" s="1">
+        <v>45142</v>
+      </c>
       <c r="N183" s="1"/>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O183" s="1"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>51</v>
       </c>
@@ -10558,17 +10558,17 @@
       <c r="J184">
         <v>2014</v>
       </c>
-      <c r="L184" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M184" s="1" t="s">
-        <v>787</v>
+      <c r="M184" s="1">
+        <v>45142</v>
       </c>
       <c r="N184" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+        <v>786</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>337</v>
       </c>
@@ -10598,13 +10598,13 @@
       <c r="J185">
         <v>2012</v>
       </c>
-      <c r="L185" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M185" s="1"/>
+      <c r="M185" s="1">
+        <v>45142</v>
+      </c>
       <c r="N185" s="1"/>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O185" s="1"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>471</v>
       </c>
@@ -10634,13 +10634,13 @@
       <c r="J186">
         <v>2011</v>
       </c>
-      <c r="L186" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M186" s="1"/>
+      <c r="M186" s="1">
+        <v>45142</v>
+      </c>
       <c r="N186" s="1"/>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O186" s="1"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>122</v>
       </c>
@@ -10670,13 +10670,13 @@
       <c r="J187">
         <v>2007</v>
       </c>
-      <c r="L187" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M187" s="1"/>
+      <c r="M187" s="1">
+        <v>45142</v>
+      </c>
       <c r="N187" s="1"/>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O187" s="1"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>452</v>
       </c>
@@ -10706,13 +10706,13 @@
       <c r="J188">
         <v>2011</v>
       </c>
-      <c r="L188" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M188" s="1"/>
+      <c r="M188" s="1">
+        <v>45142</v>
+      </c>
       <c r="N188" s="1"/>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O188" s="1"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>296</v>
       </c>
@@ -10742,13 +10742,13 @@
       <c r="J189">
         <v>2012</v>
       </c>
-      <c r="L189" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M189" s="1"/>
+      <c r="M189" s="1">
+        <v>45142</v>
+      </c>
       <c r="N189" s="1"/>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O189" s="1"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>302</v>
       </c>
@@ -10778,13 +10778,13 @@
       <c r="J190">
         <v>2012</v>
       </c>
-      <c r="L190" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M190" s="1"/>
+      <c r="M190" s="1">
+        <v>45142</v>
+      </c>
       <c r="N190" s="1"/>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O190" s="1"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>480</v>
       </c>
@@ -10814,13 +10814,13 @@
       <c r="J191">
         <v>2000</v>
       </c>
-      <c r="L191" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M191" s="1"/>
+      <c r="M191" s="1">
+        <v>45142</v>
+      </c>
       <c r="N191" s="1"/>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O191" s="1"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>461</v>
       </c>
@@ -10850,13 +10850,13 @@
       <c r="J192">
         <v>2013</v>
       </c>
-      <c r="L192" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M192" s="1"/>
+      <c r="M192" s="1">
+        <v>45142</v>
+      </c>
       <c r="N192" s="1"/>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O192" s="1"/>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>434</v>
       </c>
@@ -10886,13 +10886,13 @@
       <c r="J193">
         <v>2011</v>
       </c>
-      <c r="L193" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M193" s="1"/>
+      <c r="M193" s="1">
+        <v>45142</v>
+      </c>
       <c r="N193" s="1"/>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O193" s="1"/>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>379</v>
       </c>
@@ -10922,13 +10922,13 @@
       <c r="J194">
         <v>2014</v>
       </c>
-      <c r="L194" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M194" s="1"/>
+      <c r="M194" s="1">
+        <v>45142</v>
+      </c>
       <c r="N194" s="1"/>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O194" s="1"/>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>265</v>
       </c>
@@ -10958,13 +10958,13 @@
       <c r="J195">
         <v>2014</v>
       </c>
-      <c r="L195" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M195" s="1"/>
+      <c r="M195" s="1">
+        <v>45142</v>
+      </c>
       <c r="N195" s="1"/>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O195" s="1"/>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>141</v>
       </c>
@@ -10997,13 +10997,13 @@
       <c r="J196">
         <v>2020</v>
       </c>
-      <c r="L196" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M196" s="1"/>
+      <c r="M196" s="1">
+        <v>45142</v>
+      </c>
       <c r="N196" s="1"/>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O196" s="1"/>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>322</v>
       </c>
@@ -11033,13 +11033,13 @@
       <c r="J197">
         <v>2013</v>
       </c>
-      <c r="L197" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M197" s="1"/>
+      <c r="M197" s="1">
+        <v>45142</v>
+      </c>
       <c r="N197" s="1"/>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O197" s="1"/>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>388</v>
       </c>
@@ -11069,13 +11069,13 @@
       <c r="J198">
         <v>2011</v>
       </c>
-      <c r="L198" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M198" s="1"/>
+      <c r="M198" s="1">
+        <v>45142</v>
+      </c>
       <c r="N198" s="1"/>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O198" s="1"/>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>291</v>
       </c>
@@ -11102,13 +11102,13 @@
       <c r="J199">
         <v>2013</v>
       </c>
-      <c r="L199" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M199" s="1"/>
+      <c r="M199" s="1">
+        <v>45142</v>
+      </c>
       <c r="N199" s="1"/>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O199" s="1"/>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>138</v>
       </c>
@@ -11138,13 +11138,13 @@
       <c r="J200">
         <v>2020</v>
       </c>
-      <c r="L200" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M200" s="1"/>
+      <c r="M200" s="1">
+        <v>45142</v>
+      </c>
       <c r="N200" s="1"/>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O200" s="1"/>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>354</v>
       </c>
@@ -11171,13 +11171,13 @@
       <c r="J201">
         <v>2011</v>
       </c>
-      <c r="L201" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M201" s="1"/>
+      <c r="M201" s="1">
+        <v>45142</v>
+      </c>
       <c r="N201" s="1"/>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O201" s="1"/>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>431</v>
       </c>
@@ -11207,13 +11207,13 @@
       <c r="J202">
         <v>2014</v>
       </c>
-      <c r="L202" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M202" s="1"/>
+      <c r="M202" s="1">
+        <v>45142</v>
+      </c>
       <c r="N202" s="1"/>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O202" s="1"/>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>445</v>
       </c>
@@ -11240,13 +11240,13 @@
       <c r="J203">
         <v>2012</v>
       </c>
-      <c r="L203" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M203" s="1"/>
+      <c r="M203" s="1">
+        <v>45142</v>
+      </c>
       <c r="N203" s="1"/>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O203" s="1"/>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>331</v>
       </c>
@@ -11273,13 +11273,13 @@
       <c r="J204">
         <v>2009</v>
       </c>
-      <c r="L204" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M204" s="1"/>
+      <c r="M204" s="1">
+        <v>45142</v>
+      </c>
       <c r="N204" s="1"/>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O204" s="1"/>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>293</v>
       </c>
@@ -11309,13 +11309,13 @@
       <c r="J205">
         <v>2012</v>
       </c>
-      <c r="L205" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M205" s="1"/>
+      <c r="M205" s="1">
+        <v>45142</v>
+      </c>
       <c r="N205" s="1"/>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O205" s="1"/>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>464</v>
       </c>
@@ -11342,13 +11342,13 @@
       <c r="J206">
         <v>2013</v>
       </c>
-      <c r="L206" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M206" s="1"/>
+      <c r="M206" s="1">
+        <v>45142</v>
+      </c>
       <c r="N206" s="1"/>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O206" s="1"/>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>383</v>
       </c>
@@ -11375,13 +11375,13 @@
       <c r="J207">
         <v>2011</v>
       </c>
-      <c r="L207" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M207" s="1"/>
+      <c r="M207" s="1">
+        <v>45142</v>
+      </c>
       <c r="N207" s="1"/>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O207" s="1"/>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>97</v>
       </c>
@@ -11414,17 +11414,17 @@
       <c r="J208">
         <v>2011</v>
       </c>
-      <c r="L208" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M208" s="1" t="s">
-        <v>786</v>
+      <c r="M208" s="1">
+        <v>45142</v>
       </c>
       <c r="N208" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+        <v>785</v>
+      </c>
+      <c r="O208" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>439</v>
       </c>
@@ -11454,13 +11454,13 @@
       <c r="J209">
         <v>2002</v>
       </c>
-      <c r="L209" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M209" s="1"/>
+      <c r="M209" s="1">
+        <v>45142</v>
+      </c>
       <c r="N209" s="1"/>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O209" s="1"/>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>474</v>
       </c>
@@ -11490,13 +11490,13 @@
       <c r="J210">
         <v>2008</v>
       </c>
-      <c r="L210" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M210" s="1"/>
+      <c r="M210" s="1">
+        <v>45142</v>
+      </c>
       <c r="N210" s="1"/>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O210" s="1"/>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>385</v>
       </c>
@@ -11526,13 +11526,13 @@
       <c r="J211">
         <v>2014</v>
       </c>
-      <c r="L211" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M211" s="1"/>
+      <c r="M211" s="1">
+        <v>45142</v>
+      </c>
       <c r="N211" s="1"/>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O211" s="1"/>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>319</v>
       </c>
@@ -11562,13 +11562,13 @@
       <c r="J212">
         <v>2009</v>
       </c>
-      <c r="L212" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M212" s="1"/>
+      <c r="M212" s="1">
+        <v>45142</v>
+      </c>
       <c r="N212" s="1"/>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O212" s="1"/>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>400</v>
       </c>
@@ -11598,13 +11598,13 @@
       <c r="J213">
         <v>2014</v>
       </c>
-      <c r="L213" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M213" s="1"/>
+      <c r="M213" s="1">
+        <v>45142</v>
+      </c>
       <c r="N213" s="1"/>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O213" s="1"/>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>270</v>
       </c>
@@ -11628,13 +11628,13 @@
       <c r="J214">
         <v>2013</v>
       </c>
-      <c r="L214" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M214" s="1"/>
+      <c r="M214" s="1">
+        <v>45142</v>
+      </c>
       <c r="N214" s="1"/>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O214" s="1"/>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>428</v>
       </c>
@@ -11661,13 +11661,13 @@
       <c r="J215">
         <v>2013</v>
       </c>
-      <c r="L215" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M215" s="1"/>
+      <c r="M215" s="1">
+        <v>45142</v>
+      </c>
       <c r="N215" s="1"/>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O215" s="1"/>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>369</v>
       </c>
@@ -11697,13 +11697,13 @@
       <c r="J216">
         <v>2013</v>
       </c>
-      <c r="L216" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M216" s="1"/>
+      <c r="M216" s="1">
+        <v>45142</v>
+      </c>
       <c r="N216" s="1"/>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O216" s="1"/>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>313</v>
       </c>
@@ -11733,13 +11733,13 @@
       <c r="J217">
         <v>2013</v>
       </c>
-      <c r="L217" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M217" s="1"/>
+      <c r="M217" s="1">
+        <v>45142</v>
+      </c>
       <c r="N217" s="1"/>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O217" s="1"/>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>425</v>
       </c>
@@ -11769,13 +11769,13 @@
       <c r="J218">
         <v>2011</v>
       </c>
-      <c r="L218" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M218" s="1"/>
+      <c r="M218" s="1">
+        <v>45142</v>
+      </c>
       <c r="N218" s="1"/>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O218" s="1"/>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>405</v>
       </c>
@@ -11802,13 +11802,13 @@
       <c r="J219">
         <v>2011</v>
       </c>
-      <c r="L219" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M219" s="1"/>
+      <c r="M219" s="1">
+        <v>45142</v>
+      </c>
       <c r="N219" s="1"/>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O219" s="1"/>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>208</v>
       </c>
@@ -11841,13 +11841,13 @@
       <c r="J220">
         <v>2019</v>
       </c>
-      <c r="L220" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M220" s="1"/>
+      <c r="M220" s="1">
+        <v>45142</v>
+      </c>
       <c r="N220" s="1"/>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O220" s="1"/>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>381</v>
       </c>
@@ -11877,13 +11877,13 @@
       <c r="J221">
         <v>2012</v>
       </c>
-      <c r="L221" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M221" s="1"/>
+      <c r="M221" s="1">
+        <v>45142</v>
+      </c>
       <c r="N221" s="1"/>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O221" s="1"/>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>442</v>
       </c>
@@ -11913,13 +11913,13 @@
       <c r="J222">
         <v>2014</v>
       </c>
-      <c r="L222" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M222" s="1"/>
+      <c r="M222" s="1">
+        <v>45142</v>
+      </c>
       <c r="N222" s="1"/>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O222" s="1"/>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>391</v>
       </c>
@@ -11949,13 +11949,13 @@
       <c r="J223">
         <v>2006</v>
       </c>
-      <c r="L223" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M223" s="1"/>
+      <c r="M223" s="1">
+        <v>45142</v>
+      </c>
       <c r="N223" s="1"/>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O223" s="1"/>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>307</v>
       </c>
@@ -11985,13 +11985,13 @@
       <c r="J224">
         <v>2010</v>
       </c>
-      <c r="L224" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M224" s="1"/>
+      <c r="M224" s="1">
+        <v>45142</v>
+      </c>
       <c r="N224" s="1"/>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O224" s="1"/>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>419</v>
       </c>
@@ -12021,13 +12021,13 @@
       <c r="J225">
         <v>2012</v>
       </c>
-      <c r="L225" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M225" s="1"/>
+      <c r="M225" s="1">
+        <v>45142</v>
+      </c>
       <c r="N225" s="1"/>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O225" s="1"/>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>356</v>
       </c>
@@ -12057,13 +12057,13 @@
       <c r="J226">
         <v>2013</v>
       </c>
-      <c r="L226" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M226" s="1"/>
+      <c r="M226" s="1">
+        <v>45142</v>
+      </c>
       <c r="N226" s="1"/>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O226" s="1"/>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>288</v>
       </c>
@@ -12093,13 +12093,13 @@
       <c r="J227">
         <v>2011</v>
       </c>
-      <c r="L227" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M227" s="1"/>
+      <c r="M227" s="1">
+        <v>45142</v>
+      </c>
       <c r="N227" s="1"/>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O227" s="1"/>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>72</v>
       </c>
@@ -12129,17 +12129,17 @@
       <c r="I228">
         <v>2019</v>
       </c>
-      <c r="L228" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M228" s="1" t="s">
-        <v>786</v>
+      <c r="M228" s="1">
+        <v>45142</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+        <v>785</v>
+      </c>
+      <c r="O228" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>348</v>
       </c>
@@ -12169,13 +12169,13 @@
       <c r="J229">
         <v>2011</v>
       </c>
-      <c r="L229" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M229" s="1"/>
+      <c r="M229" s="1">
+        <v>45142</v>
+      </c>
       <c r="N229" s="1"/>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O229" s="1"/>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>76</v>
       </c>
@@ -12205,17 +12205,17 @@
       <c r="J230">
         <v>2015</v>
       </c>
-      <c r="L230" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M230" s="1" t="s">
-        <v>800</v>
+      <c r="M230" s="1">
+        <v>45142</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+        <v>798</v>
+      </c>
+      <c r="O230" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>325</v>
       </c>
@@ -12245,13 +12245,13 @@
       <c r="J231">
         <v>2009</v>
       </c>
-      <c r="L231" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M231" s="1"/>
+      <c r="M231" s="1">
+        <v>45142</v>
+      </c>
       <c r="N231" s="1"/>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O231" s="1"/>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>477</v>
       </c>
@@ -12281,13 +12281,13 @@
       <c r="J232">
         <v>2012</v>
       </c>
-      <c r="L232" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M232" s="1"/>
+      <c r="M232" s="1">
+        <v>45142</v>
+      </c>
       <c r="N232" s="1"/>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O232" s="1"/>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>359</v>
       </c>
@@ -12317,13 +12317,13 @@
       <c r="J233">
         <v>2012</v>
       </c>
-      <c r="L233" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M233" s="1"/>
+      <c r="M233" s="1">
+        <v>45142</v>
+      </c>
       <c r="N233" s="1"/>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O233" s="1"/>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>450</v>
       </c>
@@ -12353,13 +12353,13 @@
       <c r="J234">
         <v>2012</v>
       </c>
-      <c r="L234" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M234" s="1"/>
+      <c r="M234" s="1">
+        <v>45142</v>
+      </c>
       <c r="N234" s="1"/>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O234" s="1"/>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>278</v>
       </c>
@@ -12389,13 +12389,13 @@
       <c r="J235">
         <v>2007</v>
       </c>
-      <c r="L235" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M235" s="1"/>
+      <c r="M235" s="1">
+        <v>45142</v>
+      </c>
       <c r="N235" s="1"/>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O235" s="1"/>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>329</v>
       </c>
@@ -12419,13 +12419,13 @@
       <c r="J236">
         <v>2015</v>
       </c>
-      <c r="L236" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M236" s="1"/>
+      <c r="M236" s="1">
+        <v>45142</v>
+      </c>
       <c r="N236" s="1"/>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O236" s="1"/>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>299</v>
       </c>
@@ -12455,13 +12455,13 @@
       <c r="J237">
         <v>2013</v>
       </c>
-      <c r="L237" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M237" s="1"/>
+      <c r="M237" s="1">
+        <v>45142</v>
+      </c>
       <c r="N237" s="1"/>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O237" s="1"/>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>334</v>
       </c>
@@ -12491,13 +12491,13 @@
       <c r="J238">
         <v>2007</v>
       </c>
-      <c r="L238" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M238" s="1"/>
+      <c r="M238" s="1">
+        <v>45142</v>
+      </c>
       <c r="N238" s="1"/>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O238" s="1"/>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>487</v>
       </c>
@@ -12527,13 +12527,13 @@
       <c r="J239">
         <v>2001</v>
       </c>
-      <c r="L239" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M239" s="1"/>
+      <c r="M239" s="1">
+        <v>45142</v>
+      </c>
       <c r="N239" s="1"/>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O239" s="1"/>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>394</v>
       </c>
@@ -12563,13 +12563,13 @@
       <c r="J240">
         <v>2013</v>
       </c>
-      <c r="L240" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M240" s="1"/>
+      <c r="M240" s="1">
+        <v>45142</v>
+      </c>
       <c r="N240" s="1"/>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O240" s="1"/>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>247</v>
       </c>
@@ -12599,13 +12599,13 @@
       <c r="J241">
         <v>2020</v>
       </c>
-      <c r="L241" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M241" s="1"/>
+      <c r="M241" s="1">
+        <v>45142</v>
+      </c>
       <c r="N241" s="1"/>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O241" s="1"/>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>232</v>
       </c>
@@ -12635,13 +12635,13 @@
       <c r="J242">
         <v>2017</v>
       </c>
-      <c r="L242" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M242" s="1"/>
+      <c r="M242" s="1">
+        <v>45142</v>
+      </c>
       <c r="N242" s="1"/>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O242" s="1"/>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>397</v>
       </c>
@@ -12671,13 +12671,13 @@
       <c r="J243">
         <v>2009</v>
       </c>
-      <c r="L243" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M243" s="1"/>
+      <c r="M243" s="1">
+        <v>45142</v>
+      </c>
       <c r="N243" s="1"/>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O243" s="1"/>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>229</v>
       </c>
@@ -12707,13 +12707,13 @@
       <c r="J244">
         <v>2019</v>
       </c>
-      <c r="L244" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M244" s="1"/>
+      <c r="M244" s="1">
+        <v>45142</v>
+      </c>
       <c r="N244" s="1"/>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O244" s="1"/>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>372</v>
       </c>
@@ -12740,13 +12740,13 @@
       <c r="J245">
         <v>2013</v>
       </c>
-      <c r="L245" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M245" s="1"/>
+      <c r="M245" s="1">
+        <v>45142</v>
+      </c>
       <c r="N245" s="1"/>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O245" s="1"/>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>272</v>
       </c>
@@ -12776,13 +12776,13 @@
       <c r="J246">
         <v>2012</v>
       </c>
-      <c r="L246" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M246" s="1"/>
+      <c r="M246" s="1">
+        <v>45142</v>
+      </c>
       <c r="N246" s="1"/>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O246" s="1"/>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>467</v>
       </c>
@@ -12812,13 +12812,13 @@
       <c r="J247">
         <v>2015</v>
       </c>
-      <c r="L247" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M247" s="1"/>
+      <c r="M247" s="1">
+        <v>45142</v>
+      </c>
       <c r="N247" s="1"/>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O247" s="1"/>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>256</v>
       </c>
@@ -12848,13 +12848,13 @@
       <c r="J248">
         <v>2012</v>
       </c>
-      <c r="L248" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M248" s="1"/>
+      <c r="M248" s="1">
+        <v>45142</v>
+      </c>
       <c r="N248" s="1"/>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O248" s="1"/>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>410</v>
       </c>
@@ -12884,13 +12884,13 @@
       <c r="J249">
         <v>1993</v>
       </c>
-      <c r="L249" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M249" s="1"/>
+      <c r="M249" s="1">
+        <v>45142</v>
+      </c>
       <c r="N249" s="1"/>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O249" s="1"/>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>407</v>
       </c>
@@ -12920,13 +12920,13 @@
       <c r="J250">
         <v>2010</v>
       </c>
-      <c r="L250" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M250" s="1"/>
+      <c r="M250" s="1">
+        <v>45142</v>
+      </c>
       <c r="N250" s="1"/>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O250" s="1"/>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>373</v>
       </c>
@@ -12956,13 +12956,13 @@
       <c r="J251">
         <v>2005</v>
       </c>
-      <c r="L251" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M251" s="1"/>
+      <c r="M251" s="1">
+        <v>45142</v>
+      </c>
       <c r="N251" s="1"/>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O251" s="1"/>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -12992,13 +12992,13 @@
       <c r="J252">
         <v>2012</v>
       </c>
-      <c r="L252" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M252" s="1"/>
+      <c r="M252" s="1">
+        <v>45142</v>
+      </c>
       <c r="N252" s="1"/>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O252" s="1"/>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>422</v>
       </c>
@@ -13028,13 +13028,13 @@
       <c r="J253">
         <v>2014</v>
       </c>
-      <c r="L253" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M253" s="1"/>
+      <c r="M253" s="1">
+        <v>45142</v>
+      </c>
       <c r="N253" s="1"/>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O253" s="1"/>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>284</v>
       </c>
@@ -13064,13 +13064,13 @@
       <c r="J254">
         <v>2010</v>
       </c>
-      <c r="L254" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M254" s="1"/>
+      <c r="M254" s="1">
+        <v>45142</v>
+      </c>
       <c r="N254" s="1"/>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O254" s="1"/>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>366</v>
       </c>
@@ -13100,13 +13100,13 @@
       <c r="J255">
         <v>2014</v>
       </c>
-      <c r="L255" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M255" s="1"/>
+      <c r="M255" s="1">
+        <v>45142</v>
+      </c>
       <c r="N255" s="1"/>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O255" s="1"/>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>44</v>
       </c>
@@ -13133,17 +13133,17 @@
       <c r="I256">
         <v>2019</v>
       </c>
-      <c r="L256" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M256" s="1" t="s">
-        <v>786</v>
+      <c r="M256" s="1">
+        <v>45142</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+        <v>785</v>
+      </c>
+      <c r="O256" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>351</v>
       </c>
@@ -13173,13 +13173,13 @@
       <c r="J257">
         <v>2008</v>
       </c>
-      <c r="L257" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M257" s="1"/>
+      <c r="M257" s="1">
+        <v>45142</v>
+      </c>
       <c r="N257" s="1"/>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O257" s="1"/>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>403</v>
       </c>
@@ -13209,13 +13209,13 @@
       <c r="J258">
         <v>2011</v>
       </c>
-      <c r="L258" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M258" s="1"/>
+      <c r="M258" s="1">
+        <v>45142</v>
+      </c>
       <c r="N258" s="1"/>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O258" s="1"/>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>343</v>
       </c>
@@ -13245,13 +13245,13 @@
       <c r="J259">
         <v>2013</v>
       </c>
-      <c r="L259" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M259" s="1"/>
+      <c r="M259" s="1">
+        <v>45142</v>
+      </c>
       <c r="N259" s="1"/>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O259" s="1"/>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>363</v>
       </c>
@@ -13281,13 +13281,13 @@
       <c r="J260">
         <v>2011</v>
       </c>
-      <c r="L260" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M260" s="1"/>
+      <c r="M260" s="1">
+        <v>45142</v>
+      </c>
       <c r="N260" s="1"/>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O260" s="1"/>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>275</v>
       </c>
@@ -13317,13 +13317,13 @@
       <c r="J261">
         <v>2011</v>
       </c>
-      <c r="L261" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M261" s="1"/>
+      <c r="M261" s="1">
+        <v>45142</v>
+      </c>
       <c r="N261" s="1"/>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O261" s="1"/>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>310</v>
       </c>
@@ -13353,13 +13353,13 @@
       <c r="J262">
         <v>2007</v>
       </c>
-      <c r="L262" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M262" s="1"/>
+      <c r="M262" s="1">
+        <v>45142</v>
+      </c>
       <c r="N262" s="1"/>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O262" s="1"/>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>458</v>
       </c>
@@ -13389,13 +13389,13 @@
       <c r="J263">
         <v>2013</v>
       </c>
-      <c r="L263" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M263" s="1"/>
+      <c r="M263" s="1">
+        <v>45142</v>
+      </c>
       <c r="N263" s="1"/>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O263" s="1"/>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>316</v>
       </c>
@@ -13425,13 +13425,13 @@
       <c r="J264">
         <v>2013</v>
       </c>
-      <c r="L264" s="1">
-        <v>45142</v>
-      </c>
-      <c r="M264" s="1"/>
+      <c r="M264" s="1">
+        <v>45142</v>
+      </c>
       <c r="N264" s="1"/>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O264" s="1"/>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>34</v>
       </c>
@@ -13461,16 +13461,16 @@
       <c r="J265">
         <v>2023</v>
       </c>
-      <c r="L265" s="1">
+      <c r="M265" s="1">
         <v>45143</v>
       </c>
-      <c r="M265" s="1"/>
       <c r="N265" s="1"/>
-      <c r="O265" t="s">
+      <c r="O265" s="1"/>
+      <c r="P265" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>30</v>
       </c>
@@ -13500,16 +13500,16 @@
       <c r="J266">
         <v>2023</v>
       </c>
-      <c r="L266" s="1">
+      <c r="M266" s="1">
         <v>45143</v>
       </c>
-      <c r="M266" s="1"/>
       <c r="N266" s="1"/>
-      <c r="O266" t="s">
+      <c r="O266" s="1"/>
+      <c r="P266" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>23</v>
       </c>
@@ -13539,20 +13539,20 @@
       <c r="J267">
         <v>2008</v>
       </c>
-      <c r="L267" s="1">
+      <c r="M267" s="1">
         <v>45149</v>
       </c>
-      <c r="M267" s="1" t="s">
-        <v>786</v>
-      </c>
       <c r="N267" s="1" t="s">
-        <v>782</v>
+        <v>785</v>
+      </c>
+      <c r="O267" s="1" t="s">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P267">
-    <sortCondition ref="K1:K267"/>
+  <autoFilter ref="A1:Q1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q267">
+    <sortCondition ref="L1:L267"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/simplified_book_list.xlsx
+++ b/data/simplified_book_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aayushiverma/Documents/Github/My-Book-Stats/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6067714-CAAA-E64D-A12D-B57FEE78A105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5312EDEF-4F9E-D44A-A013-F488F04D480C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23540" yWindow="500" windowWidth="27660" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19400" yWindow="500" windowWidth="31680" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="goodreads_library_export" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="804">
   <si>
     <t>Title</t>
   </si>
@@ -2438,6 +2438,18 @@
   </si>
   <si>
     <t>Year Read</t>
+  </si>
+  <si>
+    <t>buy?</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Going Bovine</t>
+  </si>
+  <si>
+    <t>Bray, Libby</t>
   </si>
 </sst>
 </file>
@@ -3316,16 +3328,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q267"/>
+  <dimension ref="A1:R267"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K159" sqref="K159"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K231" sqref="K231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.5" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="3.6640625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" hidden="1" customWidth="1"/>
@@ -3343,7 +3355,7 @@
     <col min="17" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3395,8 +3407,11 @@
       <c r="Q1" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>304</v>
       </c>
@@ -3434,8 +3449,11 @@
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>727</v>
       </c>
@@ -3473,8 +3491,11 @@
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>641</v>
       </c>
@@ -3513,7 +3534,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>455</v>
       </c>
@@ -3552,7 +3573,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>649</v>
       </c>
@@ -3582,7 +3603,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>484</v>
       </c>
@@ -3621,7 +3642,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>447</v>
       </c>
@@ -3659,8 +3680,11 @@
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>632</v>
       </c>
@@ -3699,7 +3723,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -3738,7 +3762,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>509</v>
       </c>
@@ -3771,7 +3795,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>340</v>
       </c>
@@ -3809,8 +3833,11 @@
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>647</v>
       </c>
@@ -3849,7 +3876,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>262</v>
       </c>
@@ -3887,8 +3914,11 @@
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>725</v>
       </c>
@@ -3923,8 +3953,11 @@
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>520</v>
       </c>
@@ -3966,7 +3999,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>570</v>
       </c>
@@ -4002,7 +4035,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>571</v>
       </c>
@@ -4037,8 +4070,11 @@
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R18" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>415</v>
       </c>
@@ -4080,7 +4116,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>259</v>
       </c>
@@ -4118,8 +4154,11 @@
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R20" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>504</v>
       </c>
@@ -4158,7 +4197,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>281</v>
       </c>
@@ -4197,7 +4236,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>693</v>
       </c>
@@ -4236,7 +4275,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>345</v>
       </c>
@@ -4275,7 +4314,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -4317,8 +4356,11 @@
       <c r="O25" s="1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q25" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>533</v>
       </c>
@@ -4351,7 +4393,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>413</v>
       </c>
@@ -4390,7 +4432,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>376</v>
       </c>
@@ -4423,7 +4465,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>651</v>
       </c>
@@ -4462,7 +4504,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>687</v>
       </c>
@@ -4500,7 +4542,7 @@
       </c>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>658</v>
       </c>
@@ -4539,7 +4581,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>567</v>
       </c>
@@ -4578,7 +4620,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>602</v>
       </c>
@@ -4620,7 +4662,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>361</v>
       </c>
@@ -4656,7 +4698,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>586</v>
       </c>
@@ -4695,7 +4737,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>436</v>
       </c>
@@ -4733,8 +4775,11 @@
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R36" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -4777,7 +4822,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -4829,7 +4874,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -4869,7 +4914,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -4921,7 +4966,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -4966,8 +5011,11 @@
       <c r="P41" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>108</v>
       </c>
@@ -5013,7 +5061,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -5059,7 +5107,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>135</v>
       </c>
@@ -5102,7 +5150,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -5144,8 +5192,11 @@
       <c r="O45" s="1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R45" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>146</v>
       </c>
@@ -5184,7 +5235,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>175</v>
       </c>
@@ -5223,7 +5274,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>241</v>
       </c>
@@ -5262,7 +5313,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>172</v>
       </c>
@@ -5300,8 +5351,11 @@
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R49" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>128</v>
       </c>
@@ -5343,8 +5397,11 @@
       <c r="O50" s="1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R50" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>212</v>
       </c>
@@ -5383,7 +5440,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -5426,7 +5483,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>165</v>
       </c>
@@ -5465,7 +5522,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -5508,7 +5565,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>168</v>
       </c>
@@ -5550,7 +5607,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>195</v>
       </c>
@@ -5593,8 +5650,11 @@
         <v>779</v>
       </c>
       <c r="O56" s="1"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R56" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -5636,8 +5696,11 @@
       <c r="O57" s="1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R57" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -5683,7 +5746,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>192</v>
       </c>
@@ -5722,7 +5785,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>91</v>
       </c>
@@ -5764,8 +5827,11 @@
       <c r="O60" s="1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R60" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>202</v>
       </c>
@@ -5804,7 +5870,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>199</v>
       </c>
@@ -5843,7 +5909,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>205</v>
       </c>
@@ -5882,7 +5948,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>250</v>
       </c>
@@ -5921,7 +5987,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -5961,7 +6027,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -6004,7 +6070,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -6047,7 +6113,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>181</v>
       </c>
@@ -6085,8 +6151,11 @@
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R68" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>154</v>
       </c>
@@ -6128,7 +6197,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>101</v>
       </c>
@@ -6166,7 +6235,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>161</v>
       </c>
@@ -6202,7 +6271,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>63</v>
       </c>
@@ -6242,7 +6311,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>243</v>
       </c>
@@ -6283,7 +6352,7 @@
       </c>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>238</v>
       </c>
@@ -6323,8 +6392,11 @@
         <v>790</v>
       </c>
       <c r="O74" s="1"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R74" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -6367,7 +6439,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -6411,7 +6483,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -6452,7 +6524,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>131</v>
       </c>
@@ -6495,8 +6567,11 @@
       <c r="O78" s="1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R78" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>215</v>
       </c>
@@ -6535,7 +6610,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>226</v>
       </c>
@@ -6573,7 +6648,7 @@
       </c>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>188</v>
       </c>
@@ -6614,7 +6689,7 @@
       </c>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>235</v>
       </c>
@@ -6653,7 +6728,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>218</v>
       </c>
@@ -6692,7 +6767,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -6732,7 +6807,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>220</v>
       </c>
@@ -6772,8 +6847,11 @@
         <v>790</v>
       </c>
       <c r="O85" s="1"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R85" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>223</v>
       </c>
@@ -6812,7 +6890,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>732</v>
       </c>
@@ -6850,8 +6928,11 @@
       </c>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R87" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>253</v>
       </c>
@@ -6890,7 +6971,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>151</v>
       </c>
@@ -6929,7 +7010,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>183</v>
       </c>
@@ -6968,7 +7049,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>158</v>
       </c>
@@ -7007,7 +7088,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>148</v>
       </c>
@@ -7046,7 +7127,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -7091,8 +7172,11 @@
       <c r="O93" s="1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R93" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -7133,7 +7217,7 @@
       </c>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>750</v>
       </c>
@@ -7181,8 +7265,11 @@
       <c r="P95" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>755</v>
       </c>
@@ -7227,8 +7314,11 @@
       <c r="P96" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>747</v>
       </c>
@@ -7266,7 +7356,7 @@
       </c>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>745</v>
       </c>
@@ -7300,8 +7390,11 @@
         <v>794</v>
       </c>
       <c r="O98" s="1"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R98" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>737</v>
       </c>
@@ -7339,7 +7432,7 @@
       </c>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>734</v>
       </c>
@@ -7380,7 +7473,7 @@
       </c>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>759</v>
       </c>
@@ -7428,8 +7521,11 @@
       <c r="P101" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>739</v>
       </c>
@@ -7473,7 +7569,7 @@
       </c>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>743</v>
       </c>
@@ -7511,7 +7607,7 @@
       </c>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>722</v>
       </c>
@@ -7549,7 +7645,7 @@
       </c>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>763</v>
       </c>
@@ -7594,8 +7690,11 @@
       <c r="P105" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q105" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>766</v>
       </c>
@@ -7637,8 +7736,11 @@
       <c r="P106" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q106" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>27</v>
       </c>
@@ -7679,7 +7781,7 @@
       </c>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:16" ht="23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" ht="23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>524</v>
       </c>
@@ -7721,7 +7823,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" ht="23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>696</v>
       </c>
@@ -7763,7 +7865,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" ht="23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>519</v>
       </c>
@@ -7802,7 +7904,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" ht="23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>690</v>
       </c>
@@ -7844,7 +7946,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" ht="23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>501</v>
       </c>
@@ -9675,6 +9777,9 @@
       <c r="J159">
         <v>2012</v>
       </c>
+      <c r="K159">
+        <v>2015</v>
+      </c>
       <c r="M159" s="1">
         <v>45141</v>
       </c>
@@ -9711,6 +9816,9 @@
       <c r="J160">
         <v>2011</v>
       </c>
+      <c r="K160">
+        <v>2015</v>
+      </c>
       <c r="M160" s="1">
         <v>45141</v>
       </c>
@@ -9747,6 +9855,9 @@
       <c r="J161">
         <v>2011</v>
       </c>
+      <c r="K161">
+        <v>2015</v>
+      </c>
       <c r="M161" s="1">
         <v>45141</v>
       </c>
@@ -9780,6 +9891,9 @@
       <c r="J162">
         <v>2010</v>
       </c>
+      <c r="K162">
+        <v>2014</v>
+      </c>
       <c r="M162" s="1">
         <v>45141</v>
       </c>
@@ -9813,6 +9927,9 @@
       <c r="J163">
         <v>2014</v>
       </c>
+      <c r="K163">
+        <v>2016</v>
+      </c>
       <c r="M163" s="1">
         <v>45141</v>
       </c>
@@ -9852,6 +9969,9 @@
       <c r="J164">
         <v>2010</v>
       </c>
+      <c r="K164">
+        <v>2013</v>
+      </c>
       <c r="M164" s="1">
         <v>45141</v>
       </c>
@@ -9888,6 +10008,9 @@
       <c r="J165">
         <v>2010</v>
       </c>
+      <c r="K165">
+        <v>2015</v>
+      </c>
       <c r="M165" s="1">
         <v>45141</v>
       </c>
@@ -9924,6 +10047,9 @@
       <c r="J166">
         <v>2011</v>
       </c>
+      <c r="K166">
+        <v>2017</v>
+      </c>
       <c r="M166" s="1">
         <v>45141</v>
       </c>
@@ -9960,6 +10086,9 @@
       <c r="J167">
         <v>2014</v>
       </c>
+      <c r="K167">
+        <v>2017</v>
+      </c>
       <c r="M167" s="1">
         <v>45141</v>
       </c>
@@ -9996,6 +10125,9 @@
       <c r="J168">
         <v>2012</v>
       </c>
+      <c r="K168">
+        <v>2016</v>
+      </c>
       <c r="M168" s="1">
         <v>45141</v>
       </c>
@@ -10029,6 +10161,9 @@
       <c r="J169">
         <v>2012</v>
       </c>
+      <c r="K169">
+        <v>2016</v>
+      </c>
       <c r="M169" s="1">
         <v>45141</v>
       </c>
@@ -10065,6 +10200,9 @@
       <c r="J170">
         <v>2015</v>
       </c>
+      <c r="K170">
+        <v>2017</v>
+      </c>
       <c r="M170" s="1">
         <v>45141</v>
       </c>
@@ -10101,6 +10239,9 @@
       <c r="J171">
         <v>2004</v>
       </c>
+      <c r="K171">
+        <v>2013</v>
+      </c>
       <c r="M171" s="1">
         <v>45141</v>
       </c>
@@ -10134,6 +10275,9 @@
       <c r="J172">
         <v>2011</v>
       </c>
+      <c r="K172">
+        <v>2016</v>
+      </c>
       <c r="M172" s="1">
         <v>45141</v>
       </c>
@@ -10170,6 +10314,9 @@
       <c r="J173">
         <v>2011</v>
       </c>
+      <c r="K173">
+        <v>2017</v>
+      </c>
       <c r="M173" s="1">
         <v>45141</v>
       </c>
@@ -10206,6 +10353,9 @@
       <c r="J174">
         <v>2011</v>
       </c>
+      <c r="K174">
+        <v>2016</v>
+      </c>
       <c r="M174" s="1">
         <v>45141</v>
       </c>
@@ -10242,6 +10392,9 @@
       <c r="J175">
         <v>2011</v>
       </c>
+      <c r="K175">
+        <v>2016</v>
+      </c>
       <c r="M175" s="1">
         <v>45141</v>
       </c>
@@ -10278,6 +10431,9 @@
       <c r="J176">
         <v>2012</v>
       </c>
+      <c r="K176">
+        <v>2017</v>
+      </c>
       <c r="M176" s="1">
         <v>45141</v>
       </c>
@@ -10311,6 +10467,9 @@
       <c r="J177">
         <v>2011</v>
       </c>
+      <c r="K177">
+        <v>2016</v>
+      </c>
       <c r="M177" s="1">
         <v>45141</v>
       </c>
@@ -10347,6 +10506,9 @@
       <c r="J178">
         <v>2011</v>
       </c>
+      <c r="K178">
+        <v>2013</v>
+      </c>
       <c r="M178" s="1">
         <v>45141</v>
       </c>
@@ -10380,6 +10542,9 @@
       <c r="J179">
         <v>2012</v>
       </c>
+      <c r="K179">
+        <v>2015</v>
+      </c>
       <c r="M179" s="1">
         <v>45141</v>
       </c>
@@ -10413,6 +10578,9 @@
       <c r="J180">
         <v>2011</v>
       </c>
+      <c r="K180">
+        <v>2014</v>
+      </c>
       <c r="M180" s="1">
         <v>45141</v>
       </c>
@@ -10449,6 +10617,9 @@
       <c r="J181">
         <v>2011</v>
       </c>
+      <c r="K181">
+        <v>2015</v>
+      </c>
       <c r="M181" s="1">
         <v>45141</v>
       </c>
@@ -10485,6 +10656,9 @@
       <c r="J182">
         <v>2019</v>
       </c>
+      <c r="K182">
+        <v>2021</v>
+      </c>
       <c r="L182" s="1"/>
       <c r="M182" s="1">
         <v>45142</v>
@@ -10522,6 +10696,9 @@
       <c r="J183">
         <v>2010</v>
       </c>
+      <c r="K183">
+        <v>2016</v>
+      </c>
       <c r="M183" s="1">
         <v>45142</v>
       </c>
@@ -10558,6 +10735,9 @@
       <c r="J184">
         <v>2014</v>
       </c>
+      <c r="K184">
+        <v>2021</v>
+      </c>
       <c r="M184" s="1">
         <v>45142</v>
       </c>
@@ -10598,6 +10778,9 @@
       <c r="J185">
         <v>2012</v>
       </c>
+      <c r="K185">
+        <v>2017</v>
+      </c>
       <c r="M185" s="1">
         <v>45142</v>
       </c>
@@ -10634,6 +10817,9 @@
       <c r="J186">
         <v>2011</v>
       </c>
+      <c r="K186">
+        <v>2016</v>
+      </c>
       <c r="M186" s="1">
         <v>45142</v>
       </c>
@@ -10670,6 +10856,9 @@
       <c r="J187">
         <v>2007</v>
       </c>
+      <c r="K187">
+        <v>2020</v>
+      </c>
       <c r="M187" s="1">
         <v>45142</v>
       </c>
@@ -10706,6 +10895,9 @@
       <c r="J188">
         <v>2011</v>
       </c>
+      <c r="K188">
+        <v>2017</v>
+      </c>
       <c r="M188" s="1">
         <v>45142</v>
       </c>
@@ -10742,6 +10934,9 @@
       <c r="J189">
         <v>2012</v>
       </c>
+      <c r="K189">
+        <v>2017</v>
+      </c>
       <c r="M189" s="1">
         <v>45142</v>
       </c>
@@ -10778,6 +10973,9 @@
       <c r="J190">
         <v>2012</v>
       </c>
+      <c r="K190">
+        <v>2016</v>
+      </c>
       <c r="M190" s="1">
         <v>45142</v>
       </c>
@@ -10814,6 +11012,9 @@
       <c r="J191">
         <v>2000</v>
       </c>
+      <c r="K191">
+        <v>2016</v>
+      </c>
       <c r="M191" s="1">
         <v>45142</v>
       </c>
@@ -10850,6 +11051,9 @@
       <c r="J192">
         <v>2013</v>
       </c>
+      <c r="K192">
+        <v>2015</v>
+      </c>
       <c r="M192" s="1">
         <v>45142</v>
       </c>
@@ -10886,6 +11090,9 @@
       <c r="J193">
         <v>2011</v>
       </c>
+      <c r="K193">
+        <v>2014</v>
+      </c>
       <c r="M193" s="1">
         <v>45142</v>
       </c>
@@ -10922,6 +11129,9 @@
       <c r="J194">
         <v>2014</v>
       </c>
+      <c r="K194">
+        <v>2016</v>
+      </c>
       <c r="M194" s="1">
         <v>45142</v>
       </c>
@@ -10958,6 +11168,9 @@
       <c r="J195">
         <v>2014</v>
       </c>
+      <c r="K195">
+        <v>2016</v>
+      </c>
       <c r="M195" s="1">
         <v>45142</v>
       </c>
@@ -10997,6 +11210,9 @@
       <c r="J196">
         <v>2020</v>
       </c>
+      <c r="K196">
+        <v>2021</v>
+      </c>
       <c r="M196" s="1">
         <v>45142</v>
       </c>
@@ -11033,6 +11249,9 @@
       <c r="J197">
         <v>2013</v>
       </c>
+      <c r="K197">
+        <v>2016</v>
+      </c>
       <c r="M197" s="1">
         <v>45142</v>
       </c>
@@ -11069,6 +11288,9 @@
       <c r="J198">
         <v>2011</v>
       </c>
+      <c r="K198">
+        <v>2015</v>
+      </c>
       <c r="M198" s="1">
         <v>45142</v>
       </c>
@@ -11102,6 +11324,9 @@
       <c r="J199">
         <v>2013</v>
       </c>
+      <c r="K199">
+        <v>2016</v>
+      </c>
       <c r="M199" s="1">
         <v>45142</v>
       </c>
@@ -11138,6 +11363,9 @@
       <c r="J200">
         <v>2020</v>
       </c>
+      <c r="K200">
+        <v>2020</v>
+      </c>
       <c r="M200" s="1">
         <v>45142</v>
       </c>
@@ -11171,6 +11399,9 @@
       <c r="J201">
         <v>2011</v>
       </c>
+      <c r="K201">
+        <v>2017</v>
+      </c>
       <c r="M201" s="1">
         <v>45142</v>
       </c>
@@ -11207,6 +11438,9 @@
       <c r="J202">
         <v>2014</v>
       </c>
+      <c r="K202">
+        <v>2017</v>
+      </c>
       <c r="M202" s="1">
         <v>45142</v>
       </c>
@@ -11240,6 +11474,9 @@
       <c r="J203">
         <v>2012</v>
       </c>
+      <c r="K203">
+        <v>2015</v>
+      </c>
       <c r="M203" s="1">
         <v>45142</v>
       </c>
@@ -11273,6 +11510,9 @@
       <c r="J204">
         <v>2009</v>
       </c>
+      <c r="K204">
+        <v>2014</v>
+      </c>
       <c r="M204" s="1">
         <v>45142</v>
       </c>
@@ -11309,6 +11549,9 @@
       <c r="J205">
         <v>2012</v>
       </c>
+      <c r="K205">
+        <v>2017</v>
+      </c>
       <c r="M205" s="1">
         <v>45142</v>
       </c>
@@ -11342,6 +11585,9 @@
       <c r="J206">
         <v>2013</v>
       </c>
+      <c r="K206">
+        <v>2013</v>
+      </c>
       <c r="M206" s="1">
         <v>45142</v>
       </c>
@@ -11375,6 +11621,9 @@
       <c r="J207">
         <v>2011</v>
       </c>
+      <c r="K207">
+        <v>2013</v>
+      </c>
       <c r="M207" s="1">
         <v>45142</v>
       </c>
@@ -11414,6 +11663,9 @@
       <c r="J208">
         <v>2011</v>
       </c>
+      <c r="K208">
+        <v>2021</v>
+      </c>
       <c r="M208" s="1">
         <v>45142</v>
       </c>
@@ -11424,7 +11676,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>439</v>
       </c>
@@ -11454,13 +11706,16 @@
       <c r="J209">
         <v>2002</v>
       </c>
+      <c r="K209">
+        <v>2015</v>
+      </c>
       <c r="M209" s="1">
         <v>45142</v>
       </c>
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>474</v>
       </c>
@@ -11490,13 +11745,16 @@
       <c r="J210">
         <v>2008</v>
       </c>
+      <c r="K210">
+        <v>2013</v>
+      </c>
       <c r="M210" s="1">
         <v>45142</v>
       </c>
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>385</v>
       </c>
@@ -11526,13 +11784,16 @@
       <c r="J211">
         <v>2014</v>
       </c>
+      <c r="K211">
+        <v>2014</v>
+      </c>
       <c r="M211" s="1">
         <v>45142</v>
       </c>
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>319</v>
       </c>
@@ -11562,13 +11823,16 @@
       <c r="J212">
         <v>2009</v>
       </c>
+      <c r="K212">
+        <v>2014</v>
+      </c>
       <c r="M212" s="1">
         <v>45142</v>
       </c>
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>400</v>
       </c>
@@ -11598,13 +11862,16 @@
       <c r="J213">
         <v>2014</v>
       </c>
+      <c r="K213">
+        <v>2016</v>
+      </c>
       <c r="M213" s="1">
         <v>45142</v>
       </c>
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>270</v>
       </c>
@@ -11628,13 +11895,16 @@
       <c r="J214">
         <v>2013</v>
       </c>
+      <c r="K214">
+        <v>2015</v>
+      </c>
       <c r="M214" s="1">
         <v>45142</v>
       </c>
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>428</v>
       </c>
@@ -11661,13 +11931,16 @@
       <c r="J215">
         <v>2013</v>
       </c>
+      <c r="K215">
+        <v>2016</v>
+      </c>
       <c r="M215" s="1">
         <v>45142</v>
       </c>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>369</v>
       </c>
@@ -11697,13 +11970,16 @@
       <c r="J216">
         <v>2013</v>
       </c>
+      <c r="K216">
+        <v>2015</v>
+      </c>
       <c r="M216" s="1">
         <v>45142</v>
       </c>
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>313</v>
       </c>
@@ -11733,13 +12009,16 @@
       <c r="J217">
         <v>2013</v>
       </c>
+      <c r="K217">
+        <v>2017</v>
+      </c>
       <c r="M217" s="1">
         <v>45142</v>
       </c>
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>425</v>
       </c>
@@ -11769,13 +12048,16 @@
       <c r="J218">
         <v>2011</v>
       </c>
+      <c r="K218">
+        <v>2013</v>
+      </c>
       <c r="M218" s="1">
         <v>45142</v>
       </c>
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>405</v>
       </c>
@@ -11802,13 +12084,16 @@
       <c r="J219">
         <v>2011</v>
       </c>
+      <c r="K219">
+        <v>2015</v>
+      </c>
       <c r="M219" s="1">
         <v>45142</v>
       </c>
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>208</v>
       </c>
@@ -11841,13 +12126,19 @@
       <c r="J220">
         <v>2019</v>
       </c>
+      <c r="K220">
+        <v>2021</v>
+      </c>
       <c r="M220" s="1">
         <v>45142</v>
       </c>
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R220" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>381</v>
       </c>
@@ -11877,13 +12168,16 @@
       <c r="J221">
         <v>2012</v>
       </c>
+      <c r="K221">
+        <v>2014</v>
+      </c>
       <c r="M221" s="1">
         <v>45142</v>
       </c>
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>442</v>
       </c>
@@ -11913,13 +12207,16 @@
       <c r="J222">
         <v>2014</v>
       </c>
+      <c r="K222">
+        <v>2015</v>
+      </c>
       <c r="M222" s="1">
         <v>45142</v>
       </c>
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>391</v>
       </c>
@@ -11949,13 +12246,16 @@
       <c r="J223">
         <v>2006</v>
       </c>
+      <c r="K223">
+        <v>2017</v>
+      </c>
       <c r="M223" s="1">
         <v>45142</v>
       </c>
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>307</v>
       </c>
@@ -11985,13 +12285,16 @@
       <c r="J224">
         <v>2010</v>
       </c>
+      <c r="K224">
+        <v>2013</v>
+      </c>
       <c r="M224" s="1">
         <v>45142</v>
       </c>
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>419</v>
       </c>
@@ -12021,13 +12324,16 @@
       <c r="J225">
         <v>2012</v>
       </c>
+      <c r="K225">
+        <v>2015</v>
+      </c>
       <c r="M225" s="1">
         <v>45142</v>
       </c>
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>356</v>
       </c>
@@ -12057,13 +12363,16 @@
       <c r="J226">
         <v>2013</v>
       </c>
+      <c r="K226">
+        <v>2016</v>
+      </c>
       <c r="M226" s="1">
         <v>45142</v>
       </c>
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>288</v>
       </c>
@@ -12093,13 +12402,16 @@
       <c r="J227">
         <v>2011</v>
       </c>
+      <c r="K227">
+        <v>2016</v>
+      </c>
       <c r="M227" s="1">
         <v>45142</v>
       </c>
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>72</v>
       </c>
@@ -12129,6 +12441,9 @@
       <c r="I228">
         <v>2019</v>
       </c>
+      <c r="K228">
+        <v>2020</v>
+      </c>
       <c r="M228" s="1">
         <v>45142</v>
       </c>
@@ -12139,7 +12454,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>348</v>
       </c>
@@ -12169,13 +12484,16 @@
       <c r="J229">
         <v>2011</v>
       </c>
+      <c r="K229">
+        <v>2016</v>
+      </c>
       <c r="M229" s="1">
         <v>45142</v>
       </c>
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>76</v>
       </c>
@@ -12205,6 +12523,9 @@
       <c r="J230">
         <v>2015</v>
       </c>
+      <c r="K230">
+        <v>2021</v>
+      </c>
       <c r="M230" s="1">
         <v>45142</v>
       </c>
@@ -12214,8 +12535,11 @@
       <c r="O230" s="1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R230" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>325</v>
       </c>
@@ -12251,7 +12575,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>477</v>
       </c>
@@ -12287,7 +12611,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>359</v>
       </c>
@@ -12323,7 +12647,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>450</v>
       </c>
@@ -12359,7 +12683,7 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>278</v>
       </c>
@@ -12395,7 +12719,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>329</v>
       </c>
@@ -12425,7 +12749,7 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>299</v>
       </c>
@@ -12461,7 +12785,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>334</v>
       </c>
@@ -12497,7 +12821,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>487</v>
       </c>
@@ -12533,7 +12857,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>394</v>
       </c>
@@ -12569,7 +12893,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>247</v>
       </c>
@@ -12605,7 +12929,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>232</v>
       </c>
@@ -12641,7 +12965,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>397</v>
       </c>
@@ -12677,7 +13001,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>229</v>
       </c>
@@ -12712,8 +13036,11 @@
       </c>
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R244" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>372</v>
       </c>
@@ -12746,7 +13073,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>272</v>
       </c>
@@ -12782,7 +13109,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>467</v>
       </c>
@@ -12818,7 +13145,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>256</v>
       </c>
@@ -12854,7 +13181,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>410</v>
       </c>
@@ -12890,7 +13217,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>407</v>
       </c>
@@ -12926,7 +13253,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>373</v>
       </c>
@@ -12962,7 +13289,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -12998,7 +13325,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>422</v>
       </c>
@@ -13034,7 +13361,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>284</v>
       </c>
@@ -13070,7 +13397,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>366</v>
       </c>
@@ -13106,7 +13433,7 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>44</v>
       </c>
@@ -13561,15 +13888,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC92D16A-4E74-AC46-8BF1-3DC9B87B009C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>769</v>
       </c>
@@ -13577,7 +13904,7 @@
         <v>43145</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>770</v>
       </c>
@@ -13588,7 +13915,7 @@
         <v>44360</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>772</v>
       </c>
@@ -13597,6 +13924,18 @@
       </c>
       <c r="C3" s="1">
         <v>44360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>802</v>
+      </c>
+      <c r="B4" t="s">
+        <v>803</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>

--- a/data/simplified_book_list.xlsx
+++ b/data/simplified_book_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aayushiverma/Documents/Github/My-Book-Stats/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02884F2-A45D-0542-9BB3-18BD75A7EBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC1DB84-E4F3-1F47-B5AB-F6C77EB8F8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="500" windowWidth="39620" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="goodreads_library_export" sheetId="1" r:id="rId1"/>
@@ -3322,8 +3322,8 @@
   <dimension ref="A1:P267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B240" sqref="B240"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3338,7 +3338,7 @@
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
     <col min="9" max="9" width="13.1640625" customWidth="1"/>
     <col min="10" max="10" width="15.1640625" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" customWidth="1"/>
     <col min="12" max="13" width="10.6640625" customWidth="1"/>
     <col min="14" max="14" width="11.5" customWidth="1"/>
     <col min="15" max="15" width="10.83203125" customWidth="1"/>
@@ -3424,9 +3424,8 @@
       <c r="J2">
         <v>1974</v>
       </c>
-      <c r="K2" t="e">
-        <f>YEAR(#REF!)</f>
-        <v>#REF!</v>
+      <c r="K2">
+        <v>2007</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -7785,7 +7784,7 @@
         <v>13</v>
       </c>
       <c r="I125">
-        <v>1656</v>
+        <v>2014</v>
       </c>
       <c r="J125">
         <v>2014</v>

--- a/data/simplified_book_list.xlsx
+++ b/data/simplified_book_list.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aayushiverma/Documents/Github/My-Book-Stats/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A03B79-FACF-7F40-B6C1-1AC9080E2F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE4C6C5-427D-F646-B0A4-1FC5C9512D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="35100" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44680" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="goodreads_library_export" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">goodreads_library_export!$A$1:$M$1</definedName>
@@ -38,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="618">
-  <si>
-    <t>Title</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="616">
   <si>
     <t>Author l-f</t>
   </si>
@@ -49,12 +45,6 @@
     <t>Additional Authors</t>
   </si>
   <si>
-    <t>ISBN</t>
-  </si>
-  <si>
-    <t>ISBN13</t>
-  </si>
-  <si>
     <t>Number of Pages</t>
   </si>
   <si>
@@ -1687,9 +1677,6 @@
     <t>INDIA, CAMBRIDGE</t>
   </si>
   <si>
-    <t>The universe next door</t>
-  </si>
-  <si>
     <t>In case of emergency</t>
   </si>
   <si>
@@ -1702,15 +1689,6 @@
     <t>Kowal, Mary Robinette</t>
   </si>
   <si>
-    <t>user_tags</t>
-  </si>
-  <si>
-    <t>ownership_status</t>
-  </si>
-  <si>
-    <t>user_genre</t>
-  </si>
-  <si>
     <t>physics</t>
   </si>
   <si>
@@ -1756,9 +1734,6 @@
     <t>history;biography;astronomy</t>
   </si>
   <si>
-    <t>fiction_status</t>
-  </si>
-  <si>
     <t>thriller</t>
   </si>
   <si>
@@ -1777,9 +1752,6 @@
     <t>Year Read</t>
   </si>
   <si>
-    <t>buy?</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -1789,9 +1761,6 @@
     <t>Bray, Libby</t>
   </si>
   <si>
-    <t>radio rebel</t>
-  </si>
-  <si>
     <t>Driftwood</t>
   </si>
   <si>
@@ -1807,9 +1776,6 @@
     <t>Mark Jones</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>Model Misfit</t>
   </si>
   <si>
@@ -1892,6 +1858,33 @@
   </si>
   <si>
     <t>Bhagat, Madhukur Kumar</t>
+  </si>
+  <si>
+    <t>Book Title</t>
+  </si>
+  <si>
+    <t>Radio Rebel</t>
+  </si>
+  <si>
+    <t>ISBN-10</t>
+  </si>
+  <si>
+    <t>ISBN-13</t>
+  </si>
+  <si>
+    <t>User Genre</t>
+  </si>
+  <si>
+    <t>Fiction Status</t>
+  </si>
+  <si>
+    <t>User Tags</t>
+  </si>
+  <si>
+    <t>Ownership Status</t>
+  </si>
+  <si>
+    <t>Buy?</t>
   </si>
 </sst>
 </file>
@@ -2763,11 +2756,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N271"/>
+  <dimension ref="A1:N286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K281" sqref="K281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2788,57 +2781,57 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="J1" t="s">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="K1" t="s">
-        <v>572</v>
+        <v>612</v>
       </c>
       <c r="L1" t="s">
-        <v>554</v>
+        <v>613</v>
       </c>
       <c r="M1" t="s">
-        <v>555</v>
+        <v>614</v>
       </c>
       <c r="N1" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D2" t="str">
         <f>"0136042597"</f>
@@ -2861,27 +2854,27 @@
         <v>2023</v>
       </c>
       <c r="J2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="L2" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D3" t="str">
         <f>"0128042915"</f>
@@ -2904,27 +2897,27 @@
         <v>2022</v>
       </c>
       <c r="J3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="L3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="str">
         <f>"1107492610"</f>
@@ -2947,24 +2940,24 @@
         <v>2018</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="L4" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" t="str">
         <f>"0767930487"</f>
@@ -2987,27 +2980,27 @@
         <v>2018</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="L5" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" t="str">
         <f>""</f>
@@ -3030,24 +3023,24 @@
         <v>2018</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="L6" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D7" t="str">
         <f>"1107512824"</f>
@@ -3067,27 +3060,27 @@
         <v>2023</v>
       </c>
       <c r="J7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="L7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B8" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C8" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D8" t="str">
         <f>"110845514X"</f>
@@ -3110,27 +3103,27 @@
         <v>2022</v>
       </c>
       <c r="J8" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="L8" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B9" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C9" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="D9" s="4">
         <v>1107492637</v>
@@ -3148,24 +3141,24 @@
         <v>2018</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="L9" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D10" s="4">
         <v>312367465</v>
@@ -3191,10 +3184,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D11" t="str">
         <f>"0525476881"</f>
@@ -3221,10 +3214,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D12" t="str">
         <f>"0316166464"</f>
@@ -3252,10 +3245,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B13" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D13" t="str">
         <f>"0141384786"</f>
@@ -3282,10 +3275,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B14" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D14" t="str">
         <f>""</f>
@@ -3309,10 +3302,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B15" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D15" t="str">
         <f>""</f>
@@ -3339,10 +3332,10 @@
     </row>
     <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B16" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D16" s="3">
         <v>1466440961</v>
@@ -3368,10 +3361,10 @@
     </row>
     <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D17" s="3">
         <v>1463768591</v>
@@ -3398,10 +3391,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B18" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D18" t="str">
         <f>"0957291205"</f>
@@ -3429,10 +3422,10 @@
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B19" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D19" s="3">
         <v>1849163944</v>
@@ -3458,10 +3451,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D20" t="str">
         <f>"0545397367"</f>
@@ -3488,10 +3481,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B21" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D21" t="str">
         <f>""</f>
@@ -3518,10 +3511,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B22" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D22" t="str">
         <f>""</f>
@@ -3548,10 +3541,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B23" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D23" t="str">
         <f>""</f>
@@ -3578,10 +3571,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B24" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D24" t="str">
         <f>"1476792488"</f>
@@ -3608,10 +3601,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D25" t="str">
         <f>"1408725797"</f>
@@ -3633,15 +3626,15 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D26" t="str">
         <f>"0063216051"</f>
@@ -3663,15 +3656,15 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B27" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D27" t="str">
         <f>"1449371434"</f>
@@ -3694,27 +3687,27 @@
         <v>2023</v>
       </c>
       <c r="J27" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="L27" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B28" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D28" t="str">
         <f>""</f>
@@ -3741,10 +3734,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D29" t="str">
         <f>""</f>
@@ -3767,19 +3760,19 @@
         <v>2021</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="K29" s="1"/>
       <c r="N29" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B30" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D30" t="str">
         <f>"0517189607"</f>
@@ -3804,15 +3797,15 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="N30" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D31" t="str">
         <f>"0156632772"</f>
@@ -3835,19 +3828,19 @@
         <v>2021</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="K31" s="1"/>
       <c r="N31" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D32" t="str">
         <f>""</f>
@@ -3872,18 +3865,18 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="N32" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C33" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D33" t="str">
         <f>"1435122941"</f>
@@ -3910,10 +3903,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B34" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D34" t="str">
         <f>"0330397761"</f>
@@ -3937,13 +3930,13 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D35" t="str">
         <f>"0671687042"</f>
@@ -3966,18 +3959,18 @@
         <v>2020</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B36" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D36" t="str">
         <f>"0385732554"</f>
@@ -4004,13 +3997,13 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D37" t="str">
         <f>"1844806979"</f>
@@ -4034,15 +4027,15 @@
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D38" t="str">
         <f>"0790004054"</f>
@@ -4065,18 +4058,18 @@
         <v>2021</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B39" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D39" t="str">
         <f>""</f>
@@ -4098,18 +4091,18 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="N39" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B40" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C40" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D40" t="str">
         <f>""</f>
@@ -4132,16 +4125,16 @@
         <v>2023</v>
       </c>
       <c r="J40" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D41" t="str">
         <f>"039333810X"</f>
@@ -4164,21 +4157,21 @@
         <v>2015</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="M41" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D42" t="str">
         <f>"0385735421"</f>
@@ -4205,10 +4198,10 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D43" t="str">
         <f>"0192718711"</f>
@@ -4235,10 +4228,10 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B44" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D44" t="str">
         <f>"3423708549"</f>
@@ -4262,10 +4255,10 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D45" t="str">
         <f>"033039908X"</f>
@@ -4292,10 +4285,10 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B46" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D46" t="str">
         <f>"0446610577"</f>
@@ -4322,10 +4315,10 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B47" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D47" t="str">
         <f>"043994998X"</f>
@@ -4345,16 +4338,16 @@
         <v>2015</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D48" t="str">
         <f>"0064473481"</f>
@@ -4381,10 +4374,10 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B49" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D49" t="str">
         <f>"1416907173"</f>
@@ -4411,13 +4404,13 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D50" t="str">
         <f>""</f>
@@ -4440,18 +4433,18 @@
         <v>2021</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B51" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D51" t="str">
         <f>""</f>
@@ -4476,15 +4469,15 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="N51" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D52" t="str">
         <f>"0316058254"</f>
@@ -4509,15 +4502,15 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="N52" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B53" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D53" t="str">
         <f>"0141317841"</f>
@@ -4544,10 +4537,10 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B54" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D54" t="str">
         <f>"038573283X"</f>
@@ -4574,10 +4567,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B55" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D55" t="str">
         <f>"2916238018"</f>
@@ -4600,16 +4593,16 @@
         <v>2021</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B56" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D56" t="str">
         <f>"0753461315"</f>
@@ -4636,10 +4629,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B57" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D57" t="str">
         <f>"0439951143"</f>
@@ -4666,10 +4659,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B58" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D58" t="str">
         <f>""</f>
@@ -4696,10 +4689,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B59" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D59" t="str">
         <f>""</f>
@@ -4726,10 +4719,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B60" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D60" t="str">
         <f>"1416949763"</f>
@@ -4756,10 +4749,10 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D61" t="str">
         <f>""</f>
@@ -4786,10 +4779,10 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D62" t="str">
         <f>"1416933484"</f>
@@ -4814,15 +4807,15 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="N62" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B63" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D63" t="str">
         <f>"0439871808"</f>
@@ -4849,10 +4842,10 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B64" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D64" t="str">
         <f>"1853409073"</f>
@@ -4879,10 +4872,10 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B65" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D65" t="str">
         <f>""</f>
@@ -4909,10 +4902,10 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D66" t="str">
         <f>"1250236401"</f>
@@ -4939,10 +4932,10 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B67" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D67" t="str">
         <f>"1599903016"</f>
@@ -4969,10 +4962,10 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B68" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D68" t="str">
         <f>"1416935584"</f>
@@ -4999,10 +4992,10 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D69" t="str">
         <f>"0764330667"</f>
@@ -5025,18 +5018,18 @@
         <v>2023</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B70" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D70" t="str">
         <f>"1921502363"</f>
@@ -5063,10 +5056,10 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B71" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D71" t="str">
         <f>"031253275X"</f>
@@ -5093,10 +5086,10 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B72" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D72" t="str">
         <f>""</f>
@@ -5123,10 +5116,10 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D73" t="str">
         <f>"1862918473"</f>
@@ -5153,10 +5146,10 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B74" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D74" t="str">
         <f>"141698643X"</f>
@@ -5183,10 +5176,10 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B75" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D75" t="str">
         <f>"0141325194"</f>
@@ -5213,10 +5206,10 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B76" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D76" t="str">
         <f>""</f>
@@ -5240,10 +5233,10 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B77" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D77" t="str">
         <f>""</f>
@@ -5270,10 +5263,10 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B78" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D78" t="str">
         <f>"1407105132"</f>
@@ -5300,10 +5293,10 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B79" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D79" t="str">
         <f>"1869508165"</f>
@@ -5330,10 +5323,10 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B80" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D80" t="str">
         <f>"1444900846"</f>
@@ -5360,13 +5353,13 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B81" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C81" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D81" t="str">
         <f>"1470008955"</f>
@@ -5393,10 +5386,10 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B82" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D82" t="str">
         <f>"141697170X"</f>
@@ -5423,10 +5416,10 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B83" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D83" t="str">
         <f>"0007326270"</f>
@@ -5451,15 +5444,15 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="N83" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B84" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D84" t="str">
         <f>"0373210086"</f>
@@ -5486,10 +5479,10 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B85" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D85" t="str">
         <f>"0312575939"</f>
@@ -5516,10 +5509,10 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B86" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D86" t="str">
         <f>"1536897345"</f>
@@ -5546,10 +5539,10 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B87" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D87" t="str">
         <f>"0732288401"</f>
@@ -5576,10 +5569,10 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B88" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D88" t="str">
         <f>""</f>
@@ -5606,10 +5599,10 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B89" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D89" t="str">
         <f>""</f>
@@ -5636,10 +5629,10 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B90" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D90" t="str">
         <f>""</f>
@@ -5666,10 +5659,10 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B91" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D91" t="str">
         <f>"057805339X"</f>
@@ -5696,10 +5689,10 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B92" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D92" t="str">
         <f>""</f>
@@ -5726,10 +5719,10 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B93" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D93" t="str">
         <f>""</f>
@@ -5756,10 +5749,10 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B94" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D94" t="str">
         <f>"1453778039"</f>
@@ -5786,10 +5779,10 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D95" t="str">
         <f>"1848879466"</f>
@@ -5812,18 +5805,18 @@
         <v>2020</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B96" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D96" t="str">
         <f>"1405282886"</f>
@@ -5850,10 +5843,10 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B97" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D97" t="str">
         <f>"1921759321"</f>
@@ -5880,10 +5873,10 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D98" t="str">
         <f>""</f>
@@ -5910,10 +5903,10 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B99" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D99" t="str">
         <f>"0007334060"</f>
@@ -5940,10 +5933,10 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B100" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D100" t="str">
         <f>"1595143971"</f>
@@ -5970,10 +5963,10 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B101" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D101" t="str">
         <f>""</f>
@@ -5997,10 +5990,10 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B102" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D102" t="str">
         <f>""</f>
@@ -6027,10 +6020,10 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B103" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D103" t="str">
         <f>""</f>
@@ -6057,10 +6050,10 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B104" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D104" t="str">
         <f>"1466459670"</f>
@@ -6087,10 +6080,10 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B105" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D105" t="str">
         <f>""</f>
@@ -6115,15 +6108,15 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="N105" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B106" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D106" t="str">
         <f>""</f>
@@ -6144,10 +6137,10 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B107" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D107" t="str">
         <f>"1444757814"</f>
@@ -6174,10 +6167,10 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B108" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D108" t="str">
         <f>""</f>
@@ -6204,10 +6197,10 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B109" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D109" t="str">
         <f>""</f>
@@ -6231,10 +6224,10 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B110" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D110" t="str">
         <f>""</f>
@@ -6261,10 +6254,10 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B111" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D111" t="str">
         <f>""</f>
@@ -6291,10 +6284,10 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B112" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D112" t="str">
         <f>""</f>
@@ -6321,10 +6314,10 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B113" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D113" t="str">
         <f>""</f>
@@ -6351,10 +6344,10 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B114" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D114" t="str">
         <f>"1937085767"</f>
@@ -6381,10 +6374,10 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B115" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D115" t="str">
         <f>""</f>
@@ -6411,10 +6404,10 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B116" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D116" t="str">
         <f>"0984662103"</f>
@@ -6441,10 +6434,10 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B117" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D117" t="str">
         <f>""</f>
@@ -6471,10 +6464,10 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B118" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D118" t="str">
         <f>"0062085484"</f>
@@ -6501,10 +6494,10 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B119" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D119" t="str">
         <f>""</f>
@@ -6531,10 +6524,10 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B120" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D120" t="str">
         <f>""</f>
@@ -6558,10 +6551,10 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B121" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D121" t="str">
         <f>""</f>
@@ -6585,10 +6578,10 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B122" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D122" t="str">
         <f>""</f>
@@ -6615,10 +6608,10 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B123" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D123" t="str">
         <f>""</f>
@@ -6645,10 +6638,10 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B124" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D124" t="str">
         <f>""</f>
@@ -6672,10 +6665,10 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B125" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D125" t="str">
         <f>"0986915505"</f>
@@ -6702,10 +6695,10 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B126" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D126" t="str">
         <f>""</f>
@@ -6732,10 +6725,10 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B127" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D127" t="str">
         <f>"1466392509"</f>
@@ -6762,10 +6755,10 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B128" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D128" t="str">
         <f>"0983398038"</f>
@@ -6792,10 +6785,10 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B129" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D129" t="str">
         <f>""</f>
@@ -6822,10 +6815,10 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B130" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D130" t="str">
         <f>"1742692664"</f>
@@ -6852,10 +6845,10 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B131" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D131" t="str">
         <f>"0615535186"</f>
@@ -6882,10 +6875,10 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B132" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D132" t="str">
         <f>""</f>
@@ -6912,13 +6905,13 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B133" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C133" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D133" t="str">
         <f>"1426207700"</f>
@@ -6941,18 +6934,18 @@
         <v>2021</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B134" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D134" t="str">
         <f>"098730786X"</f>
@@ -6979,10 +6972,10 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B135" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D135" t="str">
         <f>""</f>
@@ -7009,10 +7002,10 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B136" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D136" t="str">
         <f>""</f>
@@ -7039,10 +7032,10 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B137" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D137" t="str">
         <f>""</f>
@@ -7066,10 +7059,10 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B138" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D138" t="str">
         <f>""</f>
@@ -7096,10 +7089,10 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B139" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D139" t="str">
         <f>""</f>
@@ -7126,10 +7119,10 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B140" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D140" t="str">
         <f>""</f>
@@ -7156,10 +7149,10 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B141" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D141" t="str">
         <f>""</f>
@@ -7186,10 +7179,10 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B142" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D142" t="str">
         <f>""</f>
@@ -7216,10 +7209,10 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B143" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D143" t="str">
         <f>""</f>
@@ -7246,10 +7239,10 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B144" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D144" t="str">
         <f>"152380419X"</f>
@@ -7276,13 +7269,13 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B145" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C145" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D145" t="str">
         <f>""</f>
@@ -7309,10 +7302,10 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B146" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D146" t="str">
         <f>"1250012570"</f>
@@ -7339,10 +7332,10 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B147" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D147" t="str">
         <f>""</f>
@@ -7369,10 +7362,10 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B148" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D148" t="str">
         <f>"1475070373"</f>
@@ -7399,10 +7392,10 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B149" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D149" t="str">
         <f>""</f>
@@ -7426,10 +7419,10 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B150" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D150" t="str">
         <f>"077831345X"</f>
@@ -7456,10 +7449,10 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B151" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D151" t="str">
         <f>""</f>
@@ -7486,13 +7479,13 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B152" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C152" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D152" t="str">
         <f>"1452665524"</f>
@@ -7516,10 +7509,10 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B153" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D153" t="str">
         <f>"1250005647"</f>
@@ -7546,10 +7539,10 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B154" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D154" t="str">
         <f>""</f>
@@ -7576,10 +7569,10 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B155" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D155" t="str">
         <f>"0778313387"</f>
@@ -7606,10 +7599,10 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B156" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D156" t="str">
         <f>"1599908727"</f>
@@ -7636,10 +7629,10 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B157" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D157" t="str">
         <f>"0375869549"</f>
@@ -7666,10 +7659,10 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B158" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D158" t="str">
         <f>"0062059939"</f>
@@ -7694,15 +7687,15 @@
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="N158" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B159" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D159" t="str">
         <f>""</f>
@@ -7729,10 +7722,10 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B160" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D160" t="str">
         <f>""</f>
@@ -7756,10 +7749,10 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B161" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D161" t="str">
         <f>""</f>
@@ -7786,10 +7779,10 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B162" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D162" t="str">
         <f>"1940534364"</f>
@@ -7816,10 +7809,10 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B163" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D163" t="str">
         <f>"0987484516"</f>
@@ -7846,10 +7839,10 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B164" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D164" t="str">
         <f>""</f>
@@ -7873,10 +7866,10 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B165" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D165" t="str">
         <f>"0988715309"</f>
@@ -7900,10 +7893,10 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B166" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D166" t="str">
         <f>""</f>
@@ -7930,10 +7923,10 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B167" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D167" t="str">
         <f>""</f>
@@ -7957,10 +7950,10 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B168" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D168" t="str">
         <f>""</f>
@@ -7987,10 +7980,10 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B169" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D169" t="str">
         <f>"031620076X"</f>
@@ -8017,10 +8010,10 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B170" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D170" t="str">
         <f>""</f>
@@ -8047,10 +8040,10 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B171" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D171" t="str">
         <f>"1407124323"</f>
@@ -8077,10 +8070,10 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B172" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D172" t="str">
         <f>""</f>
@@ -8107,10 +8100,10 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B173" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D173" t="str">
         <f>""</f>
@@ -8134,10 +8127,10 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B174" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D174" t="str">
         <f>""</f>
@@ -8164,10 +8157,10 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B175" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D175" t="str">
         <f>"1471115992"</f>
@@ -8194,10 +8187,10 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B176" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D176" t="str">
         <f>""</f>
@@ -8224,10 +8217,10 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B177" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D177" t="str">
         <f>"1489553207"</f>
@@ -8254,10 +8247,10 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B178" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D178" t="str">
         <f>"1743315864"</f>
@@ -8284,10 +8277,10 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B179" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D179" t="str">
         <f>""</f>
@@ -8314,10 +8307,10 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B180" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D180" t="str">
         <f>"0812995325"</f>
@@ -8342,15 +8335,15 @@
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
       <c r="N180" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B181" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D181" t="str">
         <f>""</f>
@@ -8377,10 +8370,10 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B182" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D182" t="str">
         <f>""</f>
@@ -8407,10 +8400,10 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B183" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D183" t="str">
         <f>"0992452414"</f>
@@ -8437,10 +8430,10 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B184" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D184" t="str">
         <f>"1338129384"</f>
@@ -8467,10 +8460,10 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B185" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D185" t="str">
         <f>""</f>
@@ -8497,10 +8490,10 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B186" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D186" t="str">
         <f>"1743317662"</f>
@@ -8527,10 +8520,10 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B187" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D187" t="str">
         <f>""</f>
@@ -8554,10 +8547,10 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B188" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D188" t="str">
         <f>"1500395447"</f>
@@ -8584,10 +8577,10 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B189" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D189" t="str">
         <f>""</f>
@@ -8614,10 +8607,10 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B190" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D190" t="str">
         <f>""</f>
@@ -8644,10 +8637,10 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B191" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D191" t="str">
         <f>"0373211090"</f>
@@ -8674,10 +8667,10 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B192" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D192" t="str">
         <f>"0732297052"</f>
@@ -8704,10 +8697,10 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B193" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D193" t="str">
         <f>""</f>
@@ -8734,10 +8727,10 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B194" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D194" t="str">
         <f>"1444780107"</f>
@@ -8760,21 +8753,21 @@
         <v>2020</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="N194" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B195" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D195" t="str">
         <f>"1250043689"</f>
@@ -8797,18 +8790,18 @@
         <v>2021</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B196" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D196" t="str">
         <f>"145491341X"</f>
@@ -8831,18 +8824,18 @@
         <v>2021</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B197" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D197" t="str">
         <f>"0804173524"</f>
@@ -8865,21 +8858,21 @@
         <v>2021</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B198" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C198" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D198" t="str">
         <f>""</f>
@@ -8903,10 +8896,10 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B199" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D199" t="str">
         <f>""</f>
@@ -8933,10 +8926,10 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B200" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D200" t="str">
         <f>""</f>
@@ -8963,10 +8956,10 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B201" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D201" t="str">
         <f>""</f>
@@ -8990,10 +8983,10 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B202" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D202" t="str">
         <f>""</f>
@@ -9016,21 +9009,21 @@
         <v>2021</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="N202" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B203" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D203" t="str">
         <f>""</f>
@@ -9053,21 +9046,21 @@
         <v>2021</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="N203" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B204" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D204" t="str">
         <f>"1910258008"</f>
@@ -9090,24 +9083,24 @@
         <v>2021</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="N204" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B205" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C205" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D205" t="str">
         <f>"1780288883"</f>
@@ -9131,18 +9124,18 @@
       </c>
       <c r="J205" s="1"/>
       <c r="K205" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="N205" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B206" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D206" t="str">
         <f>"0062314009"</f>
@@ -9168,13 +9161,13 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B207" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C207" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D207" t="str">
         <f>"1335004882"</f>
@@ -9201,13 +9194,13 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B208" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C208" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D208" t="str">
         <f>""</f>
@@ -9234,10 +9227,10 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B209" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D209" t="str">
         <f>"0714871044"</f>
@@ -9261,15 +9254,15 @@
       </c>
       <c r="J209" s="1"/>
       <c r="K209" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B210" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D210" t="str">
         <f>"1101904224"</f>
@@ -9292,16 +9285,16 @@
         <v>2023</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="K210" s="1"/>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B211" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D211" t="str">
         <f>""</f>
@@ -9328,10 +9321,10 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B212" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D212" t="str">
         <f>""</f>
@@ -9356,18 +9349,18 @@
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
       <c r="N212" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B213" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C213" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D213" t="str">
         <f>"0062409166"</f>
@@ -9394,10 +9387,10 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B214" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D214" t="str">
         <f>"1101886722"</f>
@@ -9424,10 +9417,10 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B215" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D215" t="str">
         <f>""</f>
@@ -9451,10 +9444,10 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B216" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D216" t="str">
         <f>""</f>
@@ -9481,10 +9474,10 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B217" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D217" t="str">
         <f>""</f>
@@ -9511,10 +9504,10 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B218" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D218" t="str">
         <f>"0008172145"</f>
@@ -9540,10 +9533,10 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B219" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D219" t="str">
         <f>"0062659057"</f>
@@ -9569,10 +9562,10 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B220" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D220" t="str">
         <f>"1947870009"</f>
@@ -9595,16 +9588,16 @@
         <v>2023</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="K220" s="1"/>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B221" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D221" t="str">
         <f>""</f>
@@ -9629,18 +9622,18 @@
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
       <c r="N221" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B222" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C222" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D222" t="str">
         <f>"1538760533"</f>
@@ -9663,18 +9656,18 @@
         <v>2020</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B223" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D223" t="str">
         <f>"1501103474"</f>
@@ -9701,10 +9694,10 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B224" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D224" t="str">
         <f>""</f>
@@ -9727,18 +9720,18 @@
         <v>2021</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B225" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D225" t="str">
         <f>"0316475408"</f>
@@ -9761,16 +9754,16 @@
         <v>2021</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="K225" s="1"/>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B226" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D226" t="str">
         <f>"0544416708"</f>
@@ -9793,16 +9786,16 @@
         <v>2023</v>
       </c>
       <c r="J226" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="K226" s="1"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B227" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D227" t="str">
         <f>"1538730391"</f>
@@ -9829,10 +9822,10 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B228" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D228" t="str">
         <f>"1846144930"</f>
@@ -9859,10 +9852,10 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B229" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D229" t="str">
         <f>"0571321941"</f>
@@ -9889,13 +9882,13 @@
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B230" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C230" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D230" t="str">
         <f>""</f>
@@ -9920,15 +9913,15 @@
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
       <c r="N230" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B231" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D231" t="str">
         <f>"0241293863"</f>
@@ -9955,10 +9948,10 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B232" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D232" t="str">
         <f>"1250304865"</f>
@@ -9983,18 +9976,18 @@
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
       <c r="N232" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B233" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C233" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D233" t="str">
         <f>"1542042062"</f>
@@ -10017,19 +10010,19 @@
         <v>2021</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="K233" s="1"/>
       <c r="N233" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B234" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D234" t="str">
         <f>"1783784849"</f>
@@ -10056,10 +10049,10 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B235" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D235" t="str">
         <f>"1937512770"</f>
@@ -10086,10 +10079,10 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B236" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D236" t="str">
         <f>""</f>
@@ -10116,10 +10109,10 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B237" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D237" t="str">
         <f>"0525558756"</f>
@@ -10146,10 +10139,10 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B238" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D238" t="str">
         <f>""</f>
@@ -10176,10 +10169,10 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B239" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D239" t="str">
         <f>""</f>
@@ -10206,10 +10199,10 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B240" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D240" t="str">
         <f>"0812994167"</f>
@@ -10236,13 +10229,13 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B241" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C241" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D241" t="str">
         <f>""</f>
@@ -10268,10 +10261,10 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B242" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D242" t="str">
         <f>""</f>
@@ -10298,10 +10291,10 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B243" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D243" t="str">
         <f>""</f>
@@ -10328,13 +10321,13 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B244" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C244" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D244" t="str">
         <f>"0593169344"</f>
@@ -10361,10 +10354,10 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B245" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D245" t="str">
         <f>"0525539557"</f>
@@ -10387,21 +10380,21 @@
         <v>2021</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="N245" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B246" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D246" t="str">
         <f>"1487006500"</f>
@@ -10428,10 +10421,10 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B247" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D247" t="str">
         <f>""</f>
@@ -10458,10 +10451,10 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B248" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D248" t="str">
         <f>"0310109604"</f>
@@ -10482,15 +10475,15 @@
       </c>
       <c r="J248" s="1"/>
       <c r="K248" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B249" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D249" t="str">
         <f>"0691178704"</f>
@@ -10513,18 +10506,18 @@
         <v>2021</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B250" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D250" t="str">
         <f>"1250266491"</f>
@@ -10551,10 +10544,10 @@
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B251" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D251" t="str">
         <f>"039354091X"</f>
@@ -10581,10 +10574,10 @@
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B252" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D252" t="str">
         <f>""</f>
@@ -10604,22 +10597,22 @@
         <v>2023</v>
       </c>
       <c r="J252" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="K252" s="1"/>
       <c r="N252" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B253" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C253" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D253" t="str">
         <f>"067491919X"</f>
@@ -10642,21 +10635,21 @@
         <v>2021</v>
       </c>
       <c r="J253" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="K253" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="N253" t="s">
         <v>571</v>
-      </c>
-      <c r="K253" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="N253" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B254" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D254" t="str">
         <f>"1643138391"</f>
@@ -10683,10 +10676,10 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="B255" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D255" t="str">
         <f>""</f>
@@ -10707,10 +10700,10 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B256" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D256" t="str">
         <f>""</f>
@@ -10737,10 +10730,10 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B257" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D257" t="str">
         <f>""</f>
@@ -10767,10 +10760,10 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B258" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D258" t="str">
         <f>"1118411579"</f>
@@ -10793,24 +10786,24 @@
         <v>2018</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B259" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C259" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D259" t="str">
         <f>"1472960181"</f>
@@ -10833,18 +10826,18 @@
         <v>2020</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B260" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D260" t="str">
         <f>"1925591697"</f>
@@ -10867,18 +10860,18 @@
         <v>2020</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B261" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D261" t="str">
         <f>"1786271974"</f>
@@ -10901,18 +10894,18 @@
         <v>2021</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B262" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D262" t="str">
         <f>"1869661346"</f>
@@ -10935,18 +10928,18 @@
         <v>2021</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B263" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D263" t="str">
         <f>"192532205X"</f>
@@ -10969,19 +10962,19 @@
         <v>2021</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="K263" s="1"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B264" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C264" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D264" t="str">
         <f>"8417268073"</f>
@@ -11004,16 +10997,16 @@
         <v>2021</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="K264" s="1"/>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B265" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D265" t="str">
         <f>""</f>
@@ -11036,21 +11029,21 @@
         <v>2021</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="B266" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="C266" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="E266">
         <v>9788120801646</v>
@@ -11068,21 +11061,21 @@
         <v>2023</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="M266" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="B267" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="E267">
         <v>9788123767598</v>
@@ -11100,21 +11093,21 @@
         <v>2023</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="M267" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="B268" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="E268">
         <v>9788171566662</v>
@@ -11132,21 +11125,21 @@
         <v>2023</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="M268" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="B269" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="E269">
         <v>9789389924947</v>
@@ -11164,21 +11157,21 @@
         <v>2023</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="M269" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="B270" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D270" s="4">
         <v>9358892021</v>
@@ -11199,21 +11192,21 @@
         <v>2023</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="M270" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="B271" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="E271">
         <v>9789394168961</v>
@@ -11228,13 +11221,172 @@
         <v>2023</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="M271" t="s">
-        <v>563</v>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>575</v>
+      </c>
+      <c r="B272" t="s">
+        <v>371</v>
+      </c>
+      <c r="I272">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>579</v>
+      </c>
+      <c r="B273" t="s">
+        <v>371</v>
+      </c>
+      <c r="I273">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>580</v>
+      </c>
+      <c r="B274" t="s">
+        <v>371</v>
+      </c>
+      <c r="I274">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>581</v>
+      </c>
+      <c r="B275" t="s">
+        <v>371</v>
+      </c>
+      <c r="I275">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>582</v>
+      </c>
+      <c r="B276" t="s">
+        <v>371</v>
+      </c>
+      <c r="I276">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>583</v>
+      </c>
+      <c r="B277" t="s">
+        <v>371</v>
+      </c>
+      <c r="I277">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>584</v>
+      </c>
+      <c r="B278" t="s">
+        <v>371</v>
+      </c>
+      <c r="I278">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>585</v>
+      </c>
+      <c r="B279" t="s">
+        <v>255</v>
+      </c>
+      <c r="I279">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>586</v>
+      </c>
+      <c r="B280" t="s">
+        <v>255</v>
+      </c>
+      <c r="I280">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>587</v>
+      </c>
+      <c r="B281" t="s">
+        <v>255</v>
+      </c>
+      <c r="I281">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>588</v>
+      </c>
+      <c r="B282" t="s">
+        <v>255</v>
+      </c>
+      <c r="I282">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>572</v>
+      </c>
+      <c r="B283" t="s">
+        <v>573</v>
+      </c>
+      <c r="I283">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>546</v>
+      </c>
+      <c r="B284" t="s">
+        <v>547</v>
+      </c>
+      <c r="I284">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>548</v>
+      </c>
+      <c r="B285" t="s">
+        <v>549</v>
+      </c>
+      <c r="I285">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -11245,202 +11397,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC92D16A-4E74-AC46-8BF1-3DC9B87B009C}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView zoomScale="226" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>549</v>
-      </c>
-      <c r="C2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>550</v>
-      </c>
-      <c r="B3" t="s">
-        <v>551</v>
-      </c>
-      <c r="C3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>552</v>
-      </c>
-      <c r="B4" t="s">
-        <v>553</v>
-      </c>
-      <c r="C4">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>581</v>
-      </c>
-      <c r="B5" t="s">
-        <v>582</v>
-      </c>
-      <c r="C5">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>585</v>
-      </c>
-      <c r="B7" t="s">
-        <v>374</v>
-      </c>
-      <c r="C7">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>590</v>
-      </c>
-      <c r="B8" t="s">
-        <v>374</v>
-      </c>
-      <c r="C8">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>591</v>
-      </c>
-      <c r="B9" t="s">
-        <v>374</v>
-      </c>
-      <c r="C9">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>592</v>
-      </c>
-      <c r="B10" t="s">
-        <v>374</v>
-      </c>
-      <c r="C10">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>593</v>
-      </c>
-      <c r="B11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C11">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>594</v>
-      </c>
-      <c r="B12" t="s">
-        <v>374</v>
-      </c>
-      <c r="C12">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>595</v>
-      </c>
-      <c r="B13" t="s">
-        <v>374</v>
-      </c>
-      <c r="C13">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>596</v>
-      </c>
-      <c r="B14" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>597</v>
-      </c>
-      <c r="B15" t="s">
-        <v>258</v>
-      </c>
-      <c r="C15">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>598</v>
-      </c>
-      <c r="B16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>599</v>
-      </c>
-      <c r="B17" t="s">
-        <v>258</v>
-      </c>
-      <c r="C17">
-        <v>2014</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>